--- a/01_学习&考研资料/同济招生/2022年使用的材料/工程类专业学位研究生教育管理中心2021年非全日制硕士研究生复试名单.xlsx
+++ b/01_学习&考研资料/同济招生/2022年使用的材料/工程类专业学位研究生教育管理中心2021年非全日制硕士研究生复试名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$L$404</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$148</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="420">
   <si>
     <r>
       <rPr>
@@ -4317,6 +4317,9 @@
       </rPr>
       <t>注：拟录取人数仅为初步方案，本着宁缺毋滥的原则，会结合各方向实际参加复试人数和考生实际情况进行调整。</t>
     </r>
+  </si>
+  <si>
+    <t>曾建军</t>
   </si>
 </sst>
 </file>
@@ -4325,12 +4328,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4372,21 +4375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4402,6 +4390,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4409,30 +4435,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4447,16 +4450,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4464,15 +4459,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4494,6 +4490,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -4503,7 +4506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4514,11 +4517,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -4535,36 +4533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4577,7 +4545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4589,7 +4557,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4601,7 +4617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4613,7 +4635,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4625,97 +4713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4824,16 +4822,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4857,16 +4855,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4888,20 +4886,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4911,10 +4909,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4923,133 +4921,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5096,6 +5094,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5116,9 +5117,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5550,18 +5548,18 @@
     <col min="8" max="8" width="9.33333333333333" customWidth="1"/>
     <col min="9" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="9.33333333333333" customWidth="1"/>
-    <col min="12" max="12" width="6.88888888888889" style="17" customWidth="1"/>
+    <col min="12" max="12" width="6.88888888888889" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43.5" customHeight="1" spans="1:12">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="22" t="s">
@@ -5569,16 +5567,16 @@
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="24"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="34" t="s">
@@ -5590,10 +5588,10 @@
         <v>102471000003325</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="27" t="s">
@@ -5622,10 +5620,10 @@
         <v>102471000002914</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -5654,10 +5652,10 @@
         <v>102471000008185</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="27" t="s">
@@ -5686,10 +5684,10 @@
         <v>102471000002980</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="27" t="s">
@@ -5718,10 +5716,10 @@
         <v>102471322212325</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="27" t="s">
@@ -5750,10 +5748,10 @@
         <v>102471000003372</v>
       </c>
       <c r="B7" s="26"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="27" t="s">
@@ -5782,10 +5780,10 @@
         <v>102471000003017</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="27" t="s">
@@ -5814,10 +5812,10 @@
         <v>102471000002984</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -5846,10 +5844,10 @@
         <v>102471330113027</v>
       </c>
       <c r="B10" s="26"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -5878,10 +5876,10 @@
         <v>102471000003224</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="27" t="s">
@@ -5910,10 +5908,10 @@
         <v>102471321110765</v>
       </c>
       <c r="B12" s="26"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -5942,10 +5940,10 @@
         <v>102471321411322</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="27" t="s">
@@ -5974,10 +5972,10 @@
         <v>102471000002816</v>
       </c>
       <c r="B14" s="26"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -6006,10 +6004,10 @@
         <v>102471000008173</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -6038,10 +6036,10 @@
         <v>102471345714819</v>
       </c>
       <c r="B16" s="26"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="27" t="s">
@@ -6070,10 +6068,10 @@
         <v>102471000002916</v>
       </c>
       <c r="B17" s="26"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="27" t="s">
@@ -6102,10 +6100,10 @@
         <v>102471000003392</v>
       </c>
       <c r="B18" s="26"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="27" t="s">
@@ -6134,10 +6132,10 @@
         <v>102471322212326</v>
       </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="27" t="s">
@@ -6166,10 +6164,10 @@
         <v>102471321411271</v>
       </c>
       <c r="B20" s="26"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -6198,10 +6196,10 @@
         <v>102471000003220</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -6230,10 +6228,10 @@
         <v>102471422517734</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -6262,10 +6260,10 @@
         <v>102471330113011</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -6294,10 +6292,10 @@
         <v>102471000003098</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -6326,10 +6324,10 @@
         <v>102471000002796</v>
       </c>
       <c r="B25" s="26"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="27" t="s">
@@ -6358,10 +6356,10 @@
         <v>102471330113028</v>
       </c>
       <c r="B26" s="26"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -6390,10 +6388,10 @@
         <v>102471000008180</v>
       </c>
       <c r="B27" s="26"/>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="27" t="s">
@@ -6422,10 +6420,10 @@
         <v>102471411217034</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="31" t="s">
@@ -6454,10 +6452,10 @@
         <v>102471000003318</v>
       </c>
       <c r="B29" s="26"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="27" t="s">
@@ -6486,10 +6484,10 @@
         <v>102471000002809</v>
       </c>
       <c r="B30" s="26"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="27" t="s">
@@ -6518,10 +6516,10 @@
         <v>102471321411346</v>
       </c>
       <c r="B31" s="26"/>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="27" t="s">
@@ -6550,10 +6548,10 @@
         <v>102471321110751</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="27" t="s">
@@ -6582,10 +6580,10 @@
         <v>102471000003369</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="27" t="s">
@@ -6614,10 +6612,10 @@
         <v>102471340814459</v>
       </c>
       <c r="B34" s="26"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -6646,10 +6644,10 @@
         <v>102471000008181</v>
       </c>
       <c r="B35" s="26"/>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="27" t="s">
@@ -6678,10 +6676,10 @@
         <v>102471000002871</v>
       </c>
       <c r="B36" s="26"/>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="27" t="s">
@@ -6710,10 +6708,10 @@
         <v>102471321411361</v>
       </c>
       <c r="B37" s="26"/>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="27" t="s">
@@ -6742,10 +6740,10 @@
         <v>102471441118479</v>
       </c>
       <c r="B38" s="26"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="27" t="s">
@@ -6774,10 +6772,10 @@
         <v>102471000003183</v>
       </c>
       <c r="B39" s="26"/>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="27" t="s">
@@ -6806,10 +6804,10 @@
         <v>102471000002978</v>
       </c>
       <c r="B40" s="26"/>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -6838,10 +6836,10 @@
         <v>102471000002939</v>
       </c>
       <c r="B41" s="26"/>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="31" t="s">
@@ -6870,10 +6868,10 @@
         <v>102471000003157</v>
       </c>
       <c r="B42" s="26"/>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E42" s="27" t="s">
@@ -6902,10 +6900,10 @@
         <v>102471000003221</v>
       </c>
       <c r="B43" s="26"/>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="27" t="s">
@@ -6934,10 +6932,10 @@
         <v>102471000003367</v>
       </c>
       <c r="B44" s="26"/>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="27" t="s">
@@ -6966,10 +6964,10 @@
         <v>102471330213251</v>
       </c>
       <c r="B45" s="26"/>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="27" t="s">
@@ -6998,10 +6996,10 @@
         <v>102471000008179</v>
       </c>
       <c r="B46" s="26"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="31" t="s">
@@ -7030,10 +7028,10 @@
         <v>102471000003395</v>
       </c>
       <c r="B47" s="26"/>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="27" t="s">
@@ -7062,10 +7060,10 @@
         <v>102471321110761</v>
       </c>
       <c r="B48" s="26"/>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="27" t="s">
@@ -7094,10 +7092,10 @@
         <v>102471321310967</v>
       </c>
       <c r="B49" s="26"/>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="27" t="s">
@@ -7126,10 +7124,10 @@
         <v>102471000003342</v>
       </c>
       <c r="B50" s="26"/>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E50" s="27" t="s">
@@ -7158,10 +7156,10 @@
         <v>102471113708443</v>
       </c>
       <c r="B51" s="26"/>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="31" t="s">
@@ -7190,10 +7188,10 @@
         <v>102471000002838</v>
       </c>
       <c r="B52" s="26"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="27" t="s">
@@ -7222,10 +7220,10 @@
         <v>102471141009132</v>
       </c>
       <c r="B53" s="26"/>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="27" t="s">
@@ -7254,10 +7252,10 @@
         <v>102471000003190</v>
       </c>
       <c r="B54" s="26"/>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="27" t="s">
@@ -7286,10 +7284,10 @@
         <v>102471000002771</v>
       </c>
       <c r="B55" s="26"/>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="27" t="s">
@@ -7318,10 +7316,10 @@
         <v>102471340114095</v>
       </c>
       <c r="B56" s="26"/>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="27" t="s">
@@ -7350,10 +7348,10 @@
         <v>102471321411273</v>
       </c>
       <c r="B57" s="26"/>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="27" t="s">
@@ -7382,10 +7380,10 @@
         <v>102471321210900</v>
       </c>
       <c r="B58" s="26"/>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="27" t="s">
@@ -7414,10 +7412,10 @@
         <v>102471000003241</v>
       </c>
       <c r="B59" s="26"/>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="27" t="s">
@@ -7446,10 +7444,10 @@
         <v>102471321611978</v>
       </c>
       <c r="B60" s="26"/>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="27" t="s">
@@ -7478,10 +7476,10 @@
         <v>102471331113977</v>
       </c>
       <c r="B61" s="26"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="27" t="s">
@@ -7510,10 +7508,10 @@
         <v>102471000002971</v>
       </c>
       <c r="B62" s="26"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="27" t="s">
@@ -7542,10 +7540,10 @@
         <v>102471322212337</v>
       </c>
       <c r="B63" s="26"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E63" s="27" t="s">
@@ -7574,10 +7572,10 @@
         <v>102471321411298</v>
       </c>
       <c r="B64" s="26"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="27" t="s">
@@ -7606,10 +7604,10 @@
         <v>102471000003775</v>
       </c>
       <c r="B65" s="26"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="31" t="s">
@@ -7638,10 +7636,10 @@
         <v>102471321511825</v>
       </c>
       <c r="B66" s="26"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="27" t="s">
@@ -7670,10 +7668,10 @@
         <v>102471000002801</v>
       </c>
       <c r="B67" s="26"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="27" t="s">
@@ -7702,10 +7700,10 @@
         <v>102471000002756</v>
       </c>
       <c r="B68" s="26"/>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="27" t="s">
@@ -7734,10 +7732,10 @@
         <v>102471000003312</v>
       </c>
       <c r="B69" s="26"/>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="27" t="s">
@@ -7766,10 +7764,10 @@
         <v>102471000003729</v>
       </c>
       <c r="B70" s="26"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="31" t="s">
@@ -7798,10 +7796,10 @@
         <v>102471321411349</v>
       </c>
       <c r="B71" s="26"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E71" s="27" t="s">
@@ -7830,10 +7828,10 @@
         <v>102471331013949</v>
       </c>
       <c r="B72" s="26"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E72" s="27" t="s">
@@ -7862,10 +7860,10 @@
         <v>102471000003287</v>
       </c>
       <c r="B73" s="26"/>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E73" s="27" t="s">
@@ -7894,10 +7892,10 @@
         <v>102471000003091</v>
       </c>
       <c r="B74" s="26"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="27" t="s">
@@ -7926,10 +7924,10 @@
         <v>102471421817680</v>
       </c>
       <c r="B75" s="26"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E75" s="27" t="s">
@@ -7958,10 +7956,10 @@
         <v>102471000003412</v>
       </c>
       <c r="B76" s="26"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E76" s="27" t="s">
@@ -7990,10 +7988,10 @@
         <v>102471000003227</v>
       </c>
       <c r="B77" s="26"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="27" t="s">
@@ -8022,10 +8020,10 @@
         <v>102471330113030</v>
       </c>
       <c r="B78" s="26"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="31" t="s">
@@ -8054,10 +8052,10 @@
         <v>102471000002878</v>
       </c>
       <c r="B79" s="26"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="27" t="s">
@@ -8086,10 +8084,10 @@
         <v>102471000008167</v>
       </c>
       <c r="B80" s="26"/>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="27" t="s">
@@ -8118,10 +8116,10 @@
         <v>102471000003795</v>
       </c>
       <c r="B81" s="26"/>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="31" t="s">
@@ -8150,10 +8148,10 @@
         <v>102471322412491</v>
       </c>
       <c r="B82" s="26"/>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="27" t="s">
@@ -8182,10 +8180,10 @@
         <v>102471330413672</v>
       </c>
       <c r="B83" s="26"/>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="27" t="s">
@@ -8214,10 +8212,10 @@
         <v>102471000003316</v>
       </c>
       <c r="B84" s="26"/>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E84" s="27" t="s">
@@ -8246,10 +8244,10 @@
         <v>102471000003805</v>
       </c>
       <c r="B85" s="26"/>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="31" t="s">
@@ -8278,10 +8276,10 @@
         <v>102471000002976</v>
       </c>
       <c r="B86" s="26"/>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E86" s="27" t="s">
@@ -8310,10 +8308,10 @@
         <v>102471000003298</v>
       </c>
       <c r="B87" s="26"/>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="27" t="s">
@@ -8342,10 +8340,10 @@
         <v>102471000003776</v>
       </c>
       <c r="B88" s="26"/>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="31" t="s">
@@ -8374,10 +8372,10 @@
         <v>102471000008183</v>
       </c>
       <c r="B89" s="26"/>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E89" s="31" t="s">
@@ -8406,10 +8404,10 @@
         <v>102471000003828</v>
       </c>
       <c r="B90" s="26"/>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E90" s="31" t="s">
@@ -8438,10 +8436,10 @@
         <v>102471000003758</v>
       </c>
       <c r="B91" s="26"/>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="31" t="s">
@@ -8470,10 +8468,10 @@
         <v>102471000003822</v>
       </c>
       <c r="B92" s="26"/>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="31" t="s">
@@ -8502,10 +8500,10 @@
         <v>102471000003197</v>
       </c>
       <c r="B93" s="26"/>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="27" t="s">
@@ -8534,10 +8532,10 @@
         <v>102471330213257</v>
       </c>
       <c r="B94" s="26"/>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="31" t="s">
@@ -8566,10 +8564,10 @@
         <v>102471321411362</v>
       </c>
       <c r="B95" s="26"/>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E95" s="27" t="s">
@@ -8598,10 +8596,10 @@
         <v>102471361015665</v>
       </c>
       <c r="B96" s="26"/>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="27" t="s">
@@ -8630,10 +8628,10 @@
         <v>102471000003261</v>
       </c>
       <c r="B97" s="26"/>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E97" s="27" t="s">
@@ -8662,10 +8660,10 @@
         <v>102471000003194</v>
       </c>
       <c r="B98" s="26"/>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E98" s="31" t="s">
@@ -8694,10 +8692,10 @@
         <v>102471000003206</v>
       </c>
       <c r="B99" s="26"/>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="27" t="s">
@@ -8726,10 +8724,10 @@
         <v>102471000003368</v>
       </c>
       <c r="B100" s="26"/>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E100" s="27" t="s">
@@ -8758,10 +8756,10 @@
         <v>102471000002917</v>
       </c>
       <c r="B101" s="26"/>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="27" t="s">
@@ -8790,10 +8788,10 @@
         <v>102471321110748</v>
       </c>
       <c r="B102" s="26"/>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D102" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E102" s="27" t="s">
@@ -8822,10 +8820,10 @@
         <v>102471340314271</v>
       </c>
       <c r="B103" s="26"/>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E103" s="27" t="s">
@@ -8854,10 +8852,10 @@
         <v>102471322012129</v>
       </c>
       <c r="B104" s="26"/>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E104" s="27" t="s">
@@ -8886,10 +8884,10 @@
         <v>102471321411330</v>
       </c>
       <c r="B105" s="26"/>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E105" s="27" t="s">
@@ -8918,10 +8916,10 @@
         <v>102471000003778</v>
       </c>
       <c r="B106" s="26"/>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="31" t="s">
@@ -8950,10 +8948,10 @@
         <v>102471000003085</v>
       </c>
       <c r="B107" s="26"/>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="27" t="s">
@@ -8982,10 +8980,10 @@
         <v>102471321210898</v>
       </c>
       <c r="B108" s="26"/>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E108" s="27" t="s">
@@ -9014,10 +9012,10 @@
         <v>102471000002886</v>
       </c>
       <c r="B109" s="26"/>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="27" t="s">
@@ -9046,10 +9044,10 @@
         <v>102471000003397</v>
       </c>
       <c r="B110" s="26"/>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="D110" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="27" t="s">
@@ -9078,10 +9076,10 @@
         <v>102471321611980</v>
       </c>
       <c r="B111" s="26"/>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D111" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="27" t="s">
@@ -9110,10 +9108,10 @@
         <v>102471000003353</v>
       </c>
       <c r="B112" s="26"/>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="D112" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="27" t="s">
@@ -9142,10 +9140,10 @@
         <v>102471321411329</v>
       </c>
       <c r="B113" s="26"/>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="21" t="s">
+      <c r="D113" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E113" s="27" t="s">
@@ -9174,10 +9172,10 @@
         <v>102471000003723</v>
       </c>
       <c r="B114" s="26"/>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="D114" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="31" t="s">
@@ -9206,10 +9204,10 @@
         <v>102471000003724</v>
       </c>
       <c r="B115" s="26"/>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D115" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E115" s="31" t="s">
@@ -9238,10 +9236,10 @@
         <v>102471370716332</v>
       </c>
       <c r="B116" s="26"/>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E116" s="27" t="s">
@@ -9270,10 +9268,10 @@
         <v>102471000003308</v>
       </c>
       <c r="B117" s="26"/>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E117" s="27" t="s">
@@ -9302,10 +9300,10 @@
         <v>102471000003339</v>
       </c>
       <c r="B118" s="26"/>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E118" s="27" t="s">
@@ -9334,10 +9332,10 @@
         <v>102471000003829</v>
       </c>
       <c r="B119" s="26"/>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D119" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E119" s="31" t="s">
@@ -9366,10 +9364,10 @@
         <v>102471000003173</v>
       </c>
       <c r="B120" s="26"/>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="27" t="s">
@@ -9398,10 +9396,10 @@
         <v>102471322012123</v>
       </c>
       <c r="B121" s="26"/>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="27" t="s">
@@ -9430,10 +9428,10 @@
         <v>102471000003182</v>
       </c>
       <c r="B122" s="26"/>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D122" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E122" s="27" t="s">
@@ -9462,10 +9460,10 @@
         <v>102471000002765</v>
       </c>
       <c r="B123" s="26"/>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D123" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E123" s="27" t="s">
@@ -9494,10 +9492,10 @@
         <v>102471340114090</v>
       </c>
       <c r="B124" s="26"/>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D124" s="21" t="s">
+      <c r="D124" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E124" s="27" t="s">
@@ -9526,10 +9524,10 @@
         <v>102471000003791</v>
       </c>
       <c r="B125" s="26"/>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D125" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E125" s="31" t="s">
@@ -9558,10 +9556,10 @@
         <v>102471000002797</v>
       </c>
       <c r="B126" s="26"/>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D126" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E126" s="27" t="s">
@@ -9590,10 +9588,10 @@
         <v>102471330113007</v>
       </c>
       <c r="B127" s="26"/>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="D127" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E127" s="27" t="s">
@@ -9622,10 +9620,10 @@
         <v>102471441218679</v>
       </c>
       <c r="B128" s="26"/>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="31" t="s">
@@ -9654,10 +9652,10 @@
         <v>102471360115424</v>
       </c>
       <c r="B129" s="26"/>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D129" s="21" t="s">
+      <c r="D129" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="27" t="s">
@@ -9686,10 +9684,10 @@
         <v>102471321411355</v>
       </c>
       <c r="B130" s="26"/>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D130" s="21" t="s">
+      <c r="D130" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="27" t="s">
@@ -9718,10 +9716,10 @@
         <v>102471321110753</v>
       </c>
       <c r="B131" s="26"/>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D131" s="21" t="s">
+      <c r="D131" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E131" s="27" t="s">
@@ -9750,10 +9748,10 @@
         <v>102471000003097</v>
       </c>
       <c r="B132" s="26"/>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D132" s="21" t="s">
+      <c r="D132" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E132" s="27" t="s">
@@ -9782,10 +9780,10 @@
         <v>102471000003210</v>
       </c>
       <c r="B133" s="26"/>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D133" s="21" t="s">
+      <c r="D133" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E133" s="27" t="s">
@@ -9814,10 +9812,10 @@
         <v>102471322212333</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D134" s="21" t="s">
+      <c r="D134" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E134" s="27" t="s">
@@ -9846,10 +9844,10 @@
         <v>102471520219888</v>
       </c>
       <c r="B135" s="26"/>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E135" s="27" t="s">
@@ -9878,10 +9876,10 @@
         <v>102471000003185</v>
       </c>
       <c r="B136" s="26"/>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="D136" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E136" s="27" t="s">
@@ -9910,10 +9908,10 @@
         <v>102471321411360</v>
       </c>
       <c r="B137" s="26"/>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D137" s="21" t="s">
+      <c r="D137" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E137" s="27" t="s">
@@ -9942,10 +9940,10 @@
         <v>102471000002764</v>
       </c>
       <c r="B138" s="26"/>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D138" s="21" t="s">
+      <c r="D138" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E138" s="27" t="s">
@@ -9974,10 +9972,10 @@
         <v>102471340814460</v>
       </c>
       <c r="B139" s="26"/>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E139" s="27" t="s">
@@ -10006,10 +10004,10 @@
         <v>102471000002947</v>
       </c>
       <c r="B140" s="26"/>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D140" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E140" s="31" t="s">
@@ -10038,10 +10036,10 @@
         <v>102471230310093</v>
       </c>
       <c r="B141" s="26"/>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E141" s="31" t="s">
@@ -10070,10 +10068,10 @@
         <v>102471340114091</v>
       </c>
       <c r="B142" s="26"/>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="27" t="s">
@@ -10102,10 +10100,10 @@
         <v>102471340114093</v>
       </c>
       <c r="B143" s="26"/>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E143" s="27" t="s">
@@ -10134,10 +10132,10 @@
         <v>102471321110763</v>
       </c>
       <c r="B144" s="26"/>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="D144" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E144" s="27" t="s">
@@ -10166,10 +10164,10 @@
         <v>102471321411354</v>
       </c>
       <c r="B145" s="26"/>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D145" s="21" t="s">
+      <c r="D145" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E145" s="27" t="s">
@@ -10198,10 +10196,10 @@
         <v>102471000003226</v>
       </c>
       <c r="B146" s="26"/>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="D146" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E146" s="27" t="s">
@@ -10230,10 +10228,10 @@
         <v>102471321411364</v>
       </c>
       <c r="B147" s="26"/>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E147" s="27" t="s">
@@ -10262,10 +10260,10 @@
         <v>102471000003764</v>
       </c>
       <c r="B148" s="26"/>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="31" t="s">
@@ -10294,10 +10292,10 @@
         <v>102471000003242</v>
       </c>
       <c r="B149" s="26"/>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E149" s="27" t="s">
@@ -10326,10 +10324,10 @@
         <v>102471321511815</v>
       </c>
       <c r="B150" s="26"/>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D150" s="21" t="s">
+      <c r="D150" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E150" s="27" t="s">
@@ -10358,10 +10356,10 @@
         <v>102471000008172</v>
       </c>
       <c r="B151" s="26"/>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D151" s="21" t="s">
+      <c r="D151" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E151" s="27" t="s">
@@ -10390,10 +10388,10 @@
         <v>102471321411301</v>
       </c>
       <c r="B152" s="26"/>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D152" s="21" t="s">
+      <c r="D152" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E152" s="27" t="s">
@@ -10422,10 +10420,10 @@
         <v>102471000003773</v>
       </c>
       <c r="B153" s="26"/>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D153" s="21" t="s">
+      <c r="D153" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E153" s="31" t="s">
@@ -10454,10 +10452,10 @@
         <v>102471000002862</v>
       </c>
       <c r="B154" s="26"/>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E154" s="27" t="s">
@@ -10486,10 +10484,10 @@
         <v>102471360915622</v>
       </c>
       <c r="B155" s="26"/>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D155" s="21" t="s">
+      <c r="D155" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E155" s="27" t="s">
@@ -10518,10 +10516,10 @@
         <v>102471321411328</v>
       </c>
       <c r="B156" s="26"/>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D156" s="21" t="s">
+      <c r="D156" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E156" s="27" t="s">
@@ -10550,10 +10548,10 @@
         <v>102471321411300</v>
       </c>
       <c r="B157" s="26"/>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="D157" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E157" s="27" t="s">
@@ -10582,10 +10580,10 @@
         <v>102471000003401</v>
       </c>
       <c r="B158" s="26"/>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="D158" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E158" s="27" t="s">
@@ -10614,10 +10612,10 @@
         <v>102471321411278</v>
       </c>
       <c r="B159" s="26"/>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D159" s="21" t="s">
+      <c r="D159" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E159" s="27" t="s">
@@ -10646,10 +10644,10 @@
         <v>102471000002781</v>
       </c>
       <c r="B160" s="26"/>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D160" s="21" t="s">
+      <c r="D160" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E160" s="27" t="s">
@@ -10678,10 +10676,10 @@
         <v>102471321511827</v>
       </c>
       <c r="B161" s="26"/>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D161" s="21" t="s">
+      <c r="D161" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E161" s="27" t="s">
@@ -10710,10 +10708,10 @@
         <v>102471000003094</v>
       </c>
       <c r="B162" s="26"/>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D162" s="21" t="s">
+      <c r="D162" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E162" s="27" t="s">
@@ -10742,10 +10740,10 @@
         <v>102471000003797</v>
       </c>
       <c r="B163" s="26"/>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D163" s="21" t="s">
+      <c r="D163" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E163" s="31" t="s">
@@ -10774,10 +10772,10 @@
         <v>102471000003340</v>
       </c>
       <c r="B164" s="26"/>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="D164" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="27" t="s">
@@ -10806,10 +10804,10 @@
         <v>102471000002803</v>
       </c>
       <c r="B165" s="26"/>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D165" s="21" t="s">
+      <c r="D165" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E165" s="27" t="s">
@@ -10838,10 +10836,10 @@
         <v>102471000003283</v>
       </c>
       <c r="B166" s="26"/>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E166" s="31" t="s">
@@ -10870,10 +10868,10 @@
         <v>102471000003268</v>
       </c>
       <c r="B167" s="26"/>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D167" s="21" t="s">
+      <c r="D167" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E167" s="27" t="s">
@@ -10902,10 +10900,10 @@
         <v>102471000002806</v>
       </c>
       <c r="B168" s="26"/>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D168" s="21" t="s">
+      <c r="D168" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E168" s="27" t="s">
@@ -10934,10 +10932,10 @@
         <v>102471321411352</v>
       </c>
       <c r="B169" s="26"/>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D169" s="21" t="s">
+      <c r="D169" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E169" s="27" t="s">
@@ -10966,10 +10964,10 @@
         <v>102471000002967</v>
       </c>
       <c r="B170" s="26"/>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D170" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E170" s="27" t="s">
@@ -10998,10 +10996,10 @@
         <v>102471000003024</v>
       </c>
       <c r="B171" s="26"/>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="D171" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E171" s="27" t="s">
@@ -11030,10 +11028,10 @@
         <v>102471000003200</v>
       </c>
       <c r="B172" s="26"/>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E172" s="27" t="s">
@@ -11062,10 +11060,10 @@
         <v>102471000008175</v>
       </c>
       <c r="B173" s="26"/>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D173" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="27" t="s">
@@ -11094,10 +11092,10 @@
         <v>102471330813898</v>
       </c>
       <c r="B174" s="26"/>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D174" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E174" s="27" t="s">
@@ -11126,10 +11124,10 @@
         <v>102471000002911</v>
       </c>
       <c r="B175" s="26"/>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D175" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="27" t="s">
@@ -11158,10 +11156,10 @@
         <v>102471000002757</v>
       </c>
       <c r="B176" s="26"/>
-      <c r="C176" s="21" t="s">
+      <c r="C176" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D176" s="21" t="s">
+      <c r="D176" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E176" s="27" t="s">
@@ -11190,10 +11188,10 @@
         <v>102471000008177</v>
       </c>
       <c r="B177" s="26"/>
-      <c r="C177" s="21" t="s">
+      <c r="C177" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D177" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E177" s="27" t="s">
@@ -11222,10 +11220,10 @@
         <v>102471330112997</v>
       </c>
       <c r="B178" s="26"/>
-      <c r="C178" s="21" t="s">
+      <c r="C178" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="D178" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="27" t="s">
@@ -11254,10 +11252,10 @@
         <v>102471000003130</v>
       </c>
       <c r="B179" s="26"/>
-      <c r="C179" s="21" t="s">
+      <c r="C179" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="D179" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E179" s="27" t="s">
@@ -11286,10 +11284,10 @@
         <v>102471321511818</v>
       </c>
       <c r="B180" s="26"/>
-      <c r="C180" s="21" t="s">
+      <c r="C180" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D180" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E180" s="27" t="s">
@@ -11318,10 +11316,10 @@
         <v>102471000008187</v>
       </c>
       <c r="B181" s="26"/>
-      <c r="C181" s="21" t="s">
+      <c r="C181" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D181" s="21" t="s">
+      <c r="D181" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E181" s="27" t="s">
@@ -11350,10 +11348,10 @@
         <v>102471000003038</v>
       </c>
       <c r="B182" s="26"/>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D182" s="21" t="s">
+      <c r="D182" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E182" s="27" t="s">
@@ -11382,10 +11380,10 @@
         <v>102471350615150</v>
       </c>
       <c r="B183" s="26"/>
-      <c r="C183" s="21" t="s">
+      <c r="C183" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D183" s="21" t="s">
+      <c r="D183" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E183" s="31" t="s">
@@ -11414,10 +11412,10 @@
         <v>102471000002777</v>
       </c>
       <c r="B184" s="26"/>
-      <c r="C184" s="21" t="s">
+      <c r="C184" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D184" s="21" t="s">
+      <c r="D184" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E184" s="27" t="s">
@@ -11446,10 +11444,10 @@
         <v>102471000003400</v>
       </c>
       <c r="B185" s="26"/>
-      <c r="C185" s="21" t="s">
+      <c r="C185" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D185" s="21" t="s">
+      <c r="D185" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E185" s="27" t="s">
@@ -11478,10 +11476,10 @@
         <v>102471370216096</v>
       </c>
       <c r="B186" s="26"/>
-      <c r="C186" s="21" t="s">
+      <c r="C186" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D186" s="21" t="s">
+      <c r="D186" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E186" s="27" t="s">
@@ -11510,10 +11508,10 @@
         <v>102471321511821</v>
       </c>
       <c r="B187" s="26"/>
-      <c r="C187" s="21" t="s">
+      <c r="C187" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D187" s="21" t="s">
+      <c r="D187" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E187" s="31" t="s">
@@ -11542,10 +11540,10 @@
         <v>102471330213236</v>
       </c>
       <c r="B188" s="26"/>
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D188" s="21" t="s">
+      <c r="D188" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E188" s="27" t="s">
@@ -11574,10 +11572,10 @@
         <v>102471330413671</v>
       </c>
       <c r="B189" s="26"/>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="D189" s="21" t="s">
+      <c r="D189" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E189" s="27" t="s">
@@ -11606,10 +11604,10 @@
         <v>102471322012127</v>
       </c>
       <c r="B190" s="26"/>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D190" s="21" t="s">
+      <c r="D190" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E190" s="27" t="s">
@@ -11638,10 +11636,10 @@
         <v>102471000003167</v>
       </c>
       <c r="B191" s="26"/>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D191" s="21" t="s">
+      <c r="D191" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E191" s="27" t="s">
@@ -11670,10 +11668,10 @@
         <v>102471000003389</v>
       </c>
       <c r="B192" s="26"/>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D192" s="21" t="s">
+      <c r="D192" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E192" s="27" t="s">
@@ -11702,10 +11700,10 @@
         <v>102471000002930</v>
       </c>
       <c r="B193" s="26"/>
-      <c r="C193" s="21" t="s">
+      <c r="C193" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D193" s="21" t="s">
+      <c r="D193" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E193" s="27" t="s">
@@ -11734,10 +11732,10 @@
         <v>102471321411326</v>
       </c>
       <c r="B194" s="26"/>
-      <c r="C194" s="21" t="s">
+      <c r="C194" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D194" s="21" t="s">
+      <c r="D194" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E194" s="27" t="s">
@@ -11766,10 +11764,10 @@
         <v>102471322212330</v>
       </c>
       <c r="B195" s="26"/>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D195" s="21" t="s">
+      <c r="D195" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E195" s="27" t="s">
@@ -11798,10 +11796,10 @@
         <v>102471322212323</v>
       </c>
       <c r="B196" s="26"/>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D196" s="21" t="s">
+      <c r="D196" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E196" s="27" t="s">
@@ -11830,10 +11828,10 @@
         <v>102471411717203</v>
       </c>
       <c r="B197" s="26"/>
-      <c r="C197" s="21" t="s">
+      <c r="C197" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D197" s="21" t="s">
+      <c r="D197" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E197" s="27" t="s">
@@ -11862,10 +11860,10 @@
         <v>102471000003362</v>
       </c>
       <c r="B198" s="26"/>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D198" s="21" t="s">
+      <c r="D198" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E198" s="27" t="s">
@@ -11894,10 +11892,10 @@
         <v>102471000003341</v>
       </c>
       <c r="B199" s="26"/>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D199" s="21" t="s">
+      <c r="D199" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E199" s="27" t="s">
@@ -11926,10 +11924,10 @@
         <v>102471000003761</v>
       </c>
       <c r="B200" s="26"/>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D200" s="21" t="s">
+      <c r="D200" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E200" s="31" t="s">
@@ -11958,10 +11956,10 @@
         <v>102471322112190</v>
       </c>
       <c r="B201" s="26"/>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D201" s="21" t="s">
+      <c r="D201" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E201" s="27" t="s">
@@ -11990,10 +11988,10 @@
         <v>102471000003295</v>
       </c>
       <c r="B202" s="26"/>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D202" s="21" t="s">
+      <c r="D202" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E202" s="27" t="s">
@@ -12022,10 +12020,10 @@
         <v>102471000003338</v>
       </c>
       <c r="B203" s="26"/>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D203" s="21" t="s">
+      <c r="D203" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E203" s="27" t="s">
@@ -12054,10 +12052,10 @@
         <v>102471321210899</v>
       </c>
       <c r="B204" s="26"/>
-      <c r="C204" s="21" t="s">
+      <c r="C204" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D204" s="21" t="s">
+      <c r="D204" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E204" s="27" t="s">
@@ -12086,10 +12084,10 @@
         <v>102471330113016</v>
       </c>
       <c r="B205" s="26"/>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D205" s="21" t="s">
+      <c r="D205" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E205" s="27" t="s">
@@ -12118,10 +12116,10 @@
         <v>102471000008163</v>
       </c>
       <c r="B206" s="26"/>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D206" s="21" t="s">
+      <c r="D206" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E206" s="27" t="s">
@@ -12150,10 +12148,10 @@
         <v>102471000003733</v>
       </c>
       <c r="B207" s="26"/>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D207" s="21" t="s">
+      <c r="D207" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E207" s="31" t="s">
@@ -12182,10 +12180,10 @@
         <v>102471410116774</v>
       </c>
       <c r="B208" s="26"/>
-      <c r="C208" s="21" t="s">
+      <c r="C208" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D208" s="21" t="s">
+      <c r="D208" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E208" s="31" t="s">
@@ -12214,10 +12212,10 @@
         <v>102471000003269</v>
       </c>
       <c r="B209" s="26"/>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D209" s="21" t="s">
+      <c r="D209" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E209" s="27" t="s">
@@ -12246,10 +12244,10 @@
         <v>102471211109652</v>
       </c>
       <c r="B210" s="26"/>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D210" s="21" t="s">
+      <c r="D210" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E210" s="27" t="s">
@@ -12278,10 +12276,10 @@
         <v>102471000002857</v>
       </c>
       <c r="B211" s="26"/>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D211" s="21" t="s">
+      <c r="D211" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E211" s="27" t="s">
@@ -12310,10 +12308,10 @@
         <v>102471130808883</v>
       </c>
       <c r="B212" s="26"/>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D212" s="21" t="s">
+      <c r="D212" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E212" s="27" t="s">
@@ -12342,10 +12340,10 @@
         <v>102471000002981</v>
       </c>
       <c r="B213" s="26"/>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D213" s="21" t="s">
+      <c r="D213" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E213" s="27" t="s">
@@ -12374,10 +12372,10 @@
         <v>102471330213238</v>
       </c>
       <c r="B214" s="26"/>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D214" s="21" t="s">
+      <c r="D214" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E214" s="27" t="s">
@@ -12406,10 +12404,10 @@
         <v>102471000003267</v>
       </c>
       <c r="B215" s="26"/>
-      <c r="C215" s="21" t="s">
+      <c r="C215" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="D215" s="21" t="s">
+      <c r="D215" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E215" s="27" t="s">
@@ -12438,10 +12436,10 @@
         <v>102471000003726</v>
       </c>
       <c r="B216" s="26"/>
-      <c r="C216" s="21" t="s">
+      <c r="C216" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D216" s="21" t="s">
+      <c r="D216" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E216" s="31" t="s">
@@ -12470,10 +12468,10 @@
         <v>102471000003109</v>
       </c>
       <c r="B217" s="26"/>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="D217" s="21" t="s">
+      <c r="D217" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E217" s="27" t="s">
@@ -12502,10 +12500,10 @@
         <v>102471000003216</v>
       </c>
       <c r="B218" s="26"/>
-      <c r="C218" s="21" t="s">
+      <c r="C218" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D218" s="21" t="s">
+      <c r="D218" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E218" s="27" t="s">
@@ -12534,10 +12532,10 @@
         <v>102471321110762</v>
       </c>
       <c r="B219" s="26"/>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D219" s="21" t="s">
+      <c r="D219" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E219" s="27" t="s">
@@ -12566,10 +12564,10 @@
         <v>102471000003361</v>
       </c>
       <c r="B220" s="26"/>
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D220" s="21" t="s">
+      <c r="D220" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E220" s="27" t="s">
@@ -12598,10 +12596,10 @@
         <v>102471330113009</v>
       </c>
       <c r="B221" s="26"/>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D221" s="21" t="s">
+      <c r="D221" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E221" s="27" t="s">
@@ -12630,10 +12628,10 @@
         <v>102471000003263</v>
       </c>
       <c r="B222" s="26"/>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D222" s="21" t="s">
+      <c r="D222" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E222" s="27" t="s">
@@ -12662,10 +12660,10 @@
         <v>102471000003307</v>
       </c>
       <c r="B223" s="26"/>
-      <c r="C223" s="21" t="s">
+      <c r="C223" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D223" s="21" t="s">
+      <c r="D223" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E223" s="27" t="s">
@@ -12694,10 +12692,10 @@
         <v>102471330513742</v>
       </c>
       <c r="B224" s="26"/>
-      <c r="C224" s="21" t="s">
+      <c r="C224" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D224" s="21" t="s">
+      <c r="D224" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E224" s="27" t="s">
@@ -12726,10 +12724,10 @@
         <v>102471000003807</v>
       </c>
       <c r="B225" s="26"/>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D225" s="21" t="s">
+      <c r="D225" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E225" s="31" t="s">
@@ -12758,10 +12756,10 @@
         <v>102471000008190</v>
       </c>
       <c r="B226" s="26"/>
-      <c r="C226" s="21" t="s">
+      <c r="C226" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D226" s="21" t="s">
+      <c r="D226" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E226" s="27" t="s">
@@ -12790,10 +12788,10 @@
         <v>102471000003332</v>
       </c>
       <c r="B227" s="26"/>
-      <c r="C227" s="21" t="s">
+      <c r="C227" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D227" s="21" t="s">
+      <c r="D227" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E227" s="27" t="s">
@@ -12822,10 +12820,10 @@
         <v>102471514719746</v>
       </c>
       <c r="B228" s="26"/>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D228" s="21" t="s">
+      <c r="D228" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E228" s="27" t="s">
@@ -12854,10 +12852,10 @@
         <v>102471000003155</v>
       </c>
       <c r="B229" s="26"/>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D229" s="21" t="s">
+      <c r="D229" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E229" s="27" t="s">
@@ -12886,10 +12884,10 @@
         <v>102471370115884</v>
       </c>
       <c r="B230" s="26"/>
-      <c r="C230" s="21" t="s">
+      <c r="C230" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D230" s="21" t="s">
+      <c r="D230" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E230" s="27" t="s">
@@ -12918,10 +12916,10 @@
         <v>102471231310167</v>
       </c>
       <c r="B231" s="26"/>
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D231" s="21" t="s">
+      <c r="D231" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E231" s="27" t="s">
@@ -12950,10 +12948,10 @@
         <v>102471000003399</v>
       </c>
       <c r="B232" s="26"/>
-      <c r="C232" s="21" t="s">
+      <c r="C232" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D232" s="21" t="s">
+      <c r="D232" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E232" s="27" t="s">
@@ -12982,10 +12980,10 @@
         <v>102471321411340</v>
       </c>
       <c r="B233" s="26"/>
-      <c r="C233" s="21" t="s">
+      <c r="C233" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D233" s="21" t="s">
+      <c r="D233" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E233" s="27" t="s">
@@ -13014,10 +13012,10 @@
         <v>102471370416182</v>
       </c>
       <c r="B234" s="26"/>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D234" s="21" t="s">
+      <c r="D234" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E234" s="31" t="s">
@@ -13046,10 +13044,10 @@
         <v>102471000002942</v>
       </c>
       <c r="B235" s="26"/>
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D235" s="21" t="s">
+      <c r="D235" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E235" s="27" t="s">
@@ -13078,10 +13076,10 @@
         <v>102471330213245</v>
       </c>
       <c r="B236" s="26"/>
-      <c r="C236" s="21" t="s">
+      <c r="C236" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D236" s="21" t="s">
+      <c r="D236" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E236" s="27" t="s">
@@ -13110,10 +13108,10 @@
         <v>102471000003239</v>
       </c>
       <c r="B237" s="26"/>
-      <c r="C237" s="21" t="s">
+      <c r="C237" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D237" s="21" t="s">
+      <c r="D237" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E237" s="27" t="s">
@@ -13142,10 +13140,10 @@
         <v>102471000003802</v>
       </c>
       <c r="B238" s="26"/>
-      <c r="C238" s="21" t="s">
+      <c r="C238" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="D238" s="21" t="s">
+      <c r="D238" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E238" s="31" t="s">
@@ -13174,10 +13172,10 @@
         <v>102471000002877</v>
       </c>
       <c r="B239" s="26"/>
-      <c r="C239" s="21" t="s">
+      <c r="C239" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="D239" s="21" t="s">
+      <c r="D239" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E239" s="27" t="s">
@@ -13206,10 +13204,10 @@
         <v>102471410116775</v>
       </c>
       <c r="B240" s="26"/>
-      <c r="C240" s="21" t="s">
+      <c r="C240" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D240" s="21" t="s">
+      <c r="D240" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E240" s="31" t="s">
@@ -13238,10 +13236,10 @@
         <v>102471322312447</v>
       </c>
       <c r="B241" s="26"/>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D241" s="21" t="s">
+      <c r="D241" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E241" s="27" t="s">
@@ -13270,10 +13268,10 @@
         <v>102471321511824</v>
       </c>
       <c r="B242" s="26"/>
-      <c r="C242" s="21" t="s">
+      <c r="C242" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D242" s="21" t="s">
+      <c r="D242" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E242" s="27" t="s">
@@ -13302,10 +13300,10 @@
         <v>102471000002920</v>
       </c>
       <c r="B243" s="26"/>
-      <c r="C243" s="21" t="s">
+      <c r="C243" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D243" s="21" t="s">
+      <c r="D243" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E243" s="27" t="s">
@@ -13334,10 +13332,10 @@
         <v>102471000003273</v>
       </c>
       <c r="B244" s="26"/>
-      <c r="C244" s="21" t="s">
+      <c r="C244" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D244" s="21" t="s">
+      <c r="D244" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E244" s="27" t="s">
@@ -13366,10 +13364,10 @@
         <v>102471000003027</v>
       </c>
       <c r="B245" s="26"/>
-      <c r="C245" s="21" t="s">
+      <c r="C245" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D245" s="21" t="s">
+      <c r="D245" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E245" s="27" t="s">
@@ -13398,10 +13396,10 @@
         <v>102471650620866</v>
       </c>
       <c r="B246" s="26"/>
-      <c r="C246" s="21" t="s">
+      <c r="C246" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D246" s="21" t="s">
+      <c r="D246" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E246" s="27" t="s">
@@ -13430,10 +13428,10 @@
         <v>102471000003737</v>
       </c>
       <c r="B247" s="26"/>
-      <c r="C247" s="21" t="s">
+      <c r="C247" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D247" s="21" t="s">
+      <c r="D247" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E247" s="31" t="s">
@@ -13462,10 +13460,10 @@
         <v>102471321411392</v>
       </c>
       <c r="B248" s="26"/>
-      <c r="C248" s="21" t="s">
+      <c r="C248" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D248" s="21" t="s">
+      <c r="D248" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E248" s="31" t="s">
@@ -13494,10 +13492,10 @@
         <v>102471000003002</v>
       </c>
       <c r="B249" s="26"/>
-      <c r="C249" s="21" t="s">
+      <c r="C249" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D249" s="21" t="s">
+      <c r="D249" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E249" s="27" t="s">
@@ -13526,10 +13524,10 @@
         <v>102471321411285</v>
       </c>
       <c r="B250" s="26"/>
-      <c r="C250" s="21" t="s">
+      <c r="C250" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D250" s="21" t="s">
+      <c r="D250" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E250" s="27" t="s">
@@ -13558,10 +13556,10 @@
         <v>102471000003049</v>
       </c>
       <c r="B251" s="26"/>
-      <c r="C251" s="21" t="s">
+      <c r="C251" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D251" s="21" t="s">
+      <c r="D251" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E251" s="27" t="s">
@@ -13590,10 +13588,10 @@
         <v>102471000003146</v>
       </c>
       <c r="B252" s="26"/>
-      <c r="C252" s="21" t="s">
+      <c r="C252" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D252" s="21" t="s">
+      <c r="D252" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E252" s="27" t="s">
@@ -13622,10 +13620,10 @@
         <v>102471000003313</v>
       </c>
       <c r="B253" s="26"/>
-      <c r="C253" s="21" t="s">
+      <c r="C253" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D253" s="21" t="s">
+      <c r="D253" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E253" s="27" t="s">
@@ -13654,10 +13652,10 @@
         <v>102471000003378</v>
       </c>
       <c r="B254" s="26"/>
-      <c r="C254" s="21" t="s">
+      <c r="C254" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D254" s="21" t="s">
+      <c r="D254" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E254" s="27" t="s">
@@ -13686,10 +13684,10 @@
         <v>102471000003150</v>
       </c>
       <c r="B255" s="26"/>
-      <c r="C255" s="21" t="s">
+      <c r="C255" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D255" s="21" t="s">
+      <c r="D255" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E255" s="27" t="s">
@@ -13718,10 +13716,10 @@
         <v>102471000003712</v>
       </c>
       <c r="B256" s="26"/>
-      <c r="C256" s="21" t="s">
+      <c r="C256" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D256" s="21" t="s">
+      <c r="D256" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E256" s="31" t="s">
@@ -13750,10 +13748,10 @@
         <v>102471360115423</v>
       </c>
       <c r="B257" s="26"/>
-      <c r="C257" s="21" t="s">
+      <c r="C257" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D257" s="21" t="s">
+      <c r="D257" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E257" s="27" t="s">
@@ -13782,10 +13780,10 @@
         <v>102471000003405</v>
       </c>
       <c r="B258" s="26"/>
-      <c r="C258" s="21" t="s">
+      <c r="C258" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D258" s="21" t="s">
+      <c r="D258" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E258" s="27" t="s">
@@ -13814,10 +13812,10 @@
         <v>102471330513743</v>
       </c>
       <c r="B259" s="26"/>
-      <c r="C259" s="21" t="s">
+      <c r="C259" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D259" s="21" t="s">
+      <c r="D259" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E259" s="27" t="s">
@@ -13846,10 +13844,10 @@
         <v>102471322212336</v>
       </c>
       <c r="B260" s="26"/>
-      <c r="C260" s="21" t="s">
+      <c r="C260" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D260" s="21" t="s">
+      <c r="D260" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E260" s="27" t="s">
@@ -13878,10 +13876,10 @@
         <v>102471000003792</v>
       </c>
       <c r="B261" s="26"/>
-      <c r="C261" s="21" t="s">
+      <c r="C261" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D261" s="21" t="s">
+      <c r="D261" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E261" s="31" t="s">
@@ -13910,10 +13908,10 @@
         <v>102471000003356</v>
       </c>
       <c r="B262" s="26"/>
-      <c r="C262" s="21" t="s">
+      <c r="C262" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D262" s="21" t="s">
+      <c r="D262" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E262" s="27" t="s">
@@ -13942,10 +13940,10 @@
         <v>102471330213234</v>
       </c>
       <c r="B263" s="26"/>
-      <c r="C263" s="21" t="s">
+      <c r="C263" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D263" s="21" t="s">
+      <c r="D263" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E263" s="27" t="s">
@@ -13974,10 +13972,10 @@
         <v>102471000002861</v>
       </c>
       <c r="B264" s="26"/>
-      <c r="C264" s="21" t="s">
+      <c r="C264" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="D264" s="21" t="s">
+      <c r="D264" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E264" s="27" t="s">
@@ -14006,10 +14004,10 @@
         <v>102471000003354</v>
       </c>
       <c r="B265" s="26"/>
-      <c r="C265" s="21" t="s">
+      <c r="C265" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D265" s="21" t="s">
+      <c r="D265" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E265" s="27" t="s">
@@ -14038,10 +14036,10 @@
         <v>102471000003026</v>
       </c>
       <c r="B266" s="26"/>
-      <c r="C266" s="21" t="s">
+      <c r="C266" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D266" s="21" t="s">
+      <c r="D266" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E266" s="27" t="s">
@@ -14070,10 +14068,10 @@
         <v>102471321411358</v>
       </c>
       <c r="B267" s="26"/>
-      <c r="C267" s="21" t="s">
+      <c r="C267" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D267" s="21" t="s">
+      <c r="D267" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E267" s="27" t="s">
@@ -14102,10 +14100,10 @@
         <v>102471000003042</v>
       </c>
       <c r="B268" s="26"/>
-      <c r="C268" s="21" t="s">
+      <c r="C268" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="D268" s="21" t="s">
+      <c r="D268" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E268" s="27" t="s">
@@ -14134,10 +14132,10 @@
         <v>102471000002903</v>
       </c>
       <c r="B269" s="26"/>
-      <c r="C269" s="21" t="s">
+      <c r="C269" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D269" s="21" t="s">
+      <c r="D269" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E269" s="27" t="s">
@@ -14166,10 +14164,10 @@
         <v>102471120608557</v>
       </c>
       <c r="B270" s="26"/>
-      <c r="C270" s="21" t="s">
+      <c r="C270" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D270" s="21" t="s">
+      <c r="D270" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E270" s="31" t="s">
@@ -14198,10 +14196,10 @@
         <v>102471322012124</v>
       </c>
       <c r="B271" s="26"/>
-      <c r="C271" s="21" t="s">
+      <c r="C271" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D271" s="21" t="s">
+      <c r="D271" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E271" s="27" t="s">
@@ -14230,10 +14228,10 @@
         <v>102471410716963</v>
       </c>
       <c r="B272" s="26"/>
-      <c r="C272" s="21" t="s">
+      <c r="C272" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="D272" s="21" t="s">
+      <c r="D272" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E272" s="27" t="s">
@@ -14262,10 +14260,10 @@
         <v>102471321110752</v>
       </c>
       <c r="B273" s="26"/>
-      <c r="C273" s="21" t="s">
+      <c r="C273" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="D273" s="21" t="s">
+      <c r="D273" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="27" t="s">
@@ -14294,10 +14292,10 @@
         <v>102471000003819</v>
       </c>
       <c r="B274" s="26"/>
-      <c r="C274" s="21" t="s">
+      <c r="C274" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="D274" s="21" t="s">
+      <c r="D274" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E274" s="31" t="s">
@@ -14326,10 +14324,10 @@
         <v>102471000003070</v>
       </c>
       <c r="B275" s="26"/>
-      <c r="C275" s="21" t="s">
+      <c r="C275" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D275" s="21" t="s">
+      <c r="D275" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="27" t="s">
@@ -14358,10 +14356,10 @@
         <v>102471000003762</v>
       </c>
       <c r="B276" s="26"/>
-      <c r="C276" s="21" t="s">
+      <c r="C276" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D276" s="21" t="s">
+      <c r="D276" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E276" s="31" t="s">
@@ -14390,10 +14388,10 @@
         <v>102471321912038</v>
       </c>
       <c r="B277" s="26"/>
-      <c r="C277" s="21" t="s">
+      <c r="C277" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D277" s="21" t="s">
+      <c r="D277" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E277" s="27" t="s">
@@ -14422,10 +14420,10 @@
         <v>102471321411351</v>
       </c>
       <c r="B278" s="26"/>
-      <c r="C278" s="21" t="s">
+      <c r="C278" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D278" s="21" t="s">
+      <c r="D278" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E278" s="27" t="s">
@@ -14454,10 +14452,10 @@
         <v>102471000002880</v>
       </c>
       <c r="B279" s="26"/>
-      <c r="C279" s="21" t="s">
+      <c r="C279" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="D279" s="21" t="s">
+      <c r="D279" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E279" s="27" t="s">
@@ -14486,10 +14484,10 @@
         <v>102471000003374</v>
       </c>
       <c r="B280" s="26"/>
-      <c r="C280" s="21" t="s">
+      <c r="C280" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="D280" s="21" t="s">
+      <c r="D280" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E280" s="27" t="s">
@@ -14518,10 +14516,10 @@
         <v>102471000002835</v>
       </c>
       <c r="B281" s="26"/>
-      <c r="C281" s="21" t="s">
+      <c r="C281" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D281" s="21" t="s">
+      <c r="D281" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E281" s="27" t="s">
@@ -14550,10 +14548,10 @@
         <v>102471000003357</v>
       </c>
       <c r="B282" s="26"/>
-      <c r="C282" s="21" t="s">
+      <c r="C282" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D282" s="21" t="s">
+      <c r="D282" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E282" s="27" t="s">
@@ -14582,10 +14580,10 @@
         <v>102471000002825</v>
       </c>
       <c r="B283" s="26"/>
-      <c r="C283" s="21" t="s">
+      <c r="C283" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D283" s="21" t="s">
+      <c r="D283" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E283" s="27" t="s">
@@ -14614,10 +14612,10 @@
         <v>102471000003390</v>
       </c>
       <c r="B284" s="26"/>
-      <c r="C284" s="21" t="s">
+      <c r="C284" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="D284" s="21" t="s">
+      <c r="D284" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E284" s="27" t="s">
@@ -14646,10 +14644,10 @@
         <v>102471000003195</v>
       </c>
       <c r="B285" s="26"/>
-      <c r="C285" s="21" t="s">
+      <c r="C285" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D285" s="21" t="s">
+      <c r="D285" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E285" s="27" t="s">
@@ -14678,10 +14676,10 @@
         <v>102471000003021</v>
       </c>
       <c r="B286" s="26"/>
-      <c r="C286" s="21" t="s">
+      <c r="C286" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D286" s="21" t="s">
+      <c r="D286" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E286" s="27" t="s">
@@ -14710,10 +14708,10 @@
         <v>102471330213250</v>
       </c>
       <c r="B287" s="26"/>
-      <c r="C287" s="21" t="s">
+      <c r="C287" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D287" s="21" t="s">
+      <c r="D287" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E287" s="27" t="s">
@@ -14742,10 +14740,10 @@
         <v>102471000002993</v>
       </c>
       <c r="B288" s="26"/>
-      <c r="C288" s="21" t="s">
+      <c r="C288" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D288" s="21" t="s">
+      <c r="D288" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E288" s="27" t="s">
@@ -14774,10 +14772,10 @@
         <v>102471000003008</v>
       </c>
       <c r="B289" s="26"/>
-      <c r="C289" s="21" t="s">
+      <c r="C289" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="D289" s="21" t="s">
+      <c r="D289" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E289" s="27" t="s">
@@ -14806,10 +14804,10 @@
         <v>102471000003736</v>
       </c>
       <c r="B290" s="26"/>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="D290" s="21" t="s">
+      <c r="D290" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E290" s="31" t="s">
@@ -14838,10 +14836,10 @@
         <v>102471000002748</v>
       </c>
       <c r="B291" s="26"/>
-      <c r="C291" s="21" t="s">
+      <c r="C291" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D291" s="21" t="s">
+      <c r="D291" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E291" s="27" t="s">
@@ -14870,10 +14868,10 @@
         <v>102471000003211</v>
       </c>
       <c r="B292" s="26"/>
-      <c r="C292" s="21" t="s">
+      <c r="C292" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D292" s="21" t="s">
+      <c r="D292" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E292" s="27" t="s">
@@ -14902,10 +14900,10 @@
         <v>102471321411306</v>
       </c>
       <c r="B293" s="26"/>
-      <c r="C293" s="21" t="s">
+      <c r="C293" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="D293" s="21" t="s">
+      <c r="D293" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E293" s="27" t="s">
@@ -14934,10 +14932,10 @@
         <v>102471000008176</v>
       </c>
       <c r="B294" s="26"/>
-      <c r="C294" s="21" t="s">
+      <c r="C294" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="D294" s="21" t="s">
+      <c r="D294" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E294" s="27" t="s">
@@ -14966,10 +14964,10 @@
         <v>102471515119822</v>
       </c>
       <c r="B295" s="26"/>
-      <c r="C295" s="21" t="s">
+      <c r="C295" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D295" s="21" t="s">
+      <c r="D295" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E295" s="31" t="s">
@@ -14998,10 +14996,10 @@
         <v>102471000003756</v>
       </c>
       <c r="B296" s="26"/>
-      <c r="C296" s="21" t="s">
+      <c r="C296" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="D296" s="21" t="s">
+      <c r="D296" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E296" s="31" t="s">
@@ -15030,10 +15028,10 @@
         <v>102471350915193</v>
       </c>
       <c r="B297" s="26"/>
-      <c r="C297" s="21" t="s">
+      <c r="C297" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="D297" s="21" t="s">
+      <c r="D297" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E297" s="27" t="s">
@@ -15062,10 +15060,10 @@
         <v>102471322212328</v>
       </c>
       <c r="B298" s="26"/>
-      <c r="C298" s="21" t="s">
+      <c r="C298" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D298" s="21" t="s">
+      <c r="D298" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E298" s="27" t="s">
@@ -15094,10 +15092,10 @@
         <v>102471321411348</v>
       </c>
       <c r="B299" s="26"/>
-      <c r="C299" s="21" t="s">
+      <c r="C299" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="D299" s="21" t="s">
+      <c r="D299" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E299" s="27" t="s">
@@ -15126,10 +15124,10 @@
         <v>102471000003749</v>
       </c>
       <c r="B300" s="26"/>
-      <c r="C300" s="21" t="s">
+      <c r="C300" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="D300" s="21" t="s">
+      <c r="D300" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E300" s="31" t="s">
@@ -15158,10 +15156,10 @@
         <v>102471411417101</v>
       </c>
       <c r="B301" s="26"/>
-      <c r="C301" s="21" t="s">
+      <c r="C301" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D301" s="21" t="s">
+      <c r="D301" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E301" s="27" t="s">
@@ -15190,10 +15188,10 @@
         <v>102471150409421</v>
       </c>
       <c r="B302" s="26"/>
-      <c r="C302" s="21" t="s">
+      <c r="C302" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="D302" s="21" t="s">
+      <c r="D302" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E302" s="27" t="s">
@@ -15222,10 +15220,10 @@
         <v>102471321611984</v>
       </c>
       <c r="B303" s="26"/>
-      <c r="C303" s="21" t="s">
+      <c r="C303" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="D303" s="21" t="s">
+      <c r="D303" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E303" s="27" t="s">
@@ -15254,10 +15252,10 @@
         <v>102471321411367</v>
       </c>
       <c r="B304" s="26"/>
-      <c r="C304" s="21" t="s">
+      <c r="C304" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="D304" s="21" t="s">
+      <c r="D304" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E304" s="27" t="s">
@@ -15286,10 +15284,10 @@
         <v>102471000003174</v>
       </c>
       <c r="B305" s="26"/>
-      <c r="C305" s="21" t="s">
+      <c r="C305" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D305" s="21" t="s">
+      <c r="D305" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E305" s="27" t="s">
@@ -15318,10 +15316,10 @@
         <v>102471321110764</v>
       </c>
       <c r="B306" s="26"/>
-      <c r="C306" s="21" t="s">
+      <c r="C306" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D306" s="21" t="s">
+      <c r="D306" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E306" s="27" t="s">
@@ -15350,10 +15348,10 @@
         <v>102471000003218</v>
       </c>
       <c r="B307" s="26"/>
-      <c r="C307" s="21" t="s">
+      <c r="C307" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="D307" s="21" t="s">
+      <c r="D307" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E307" s="27" t="s">
@@ -15382,10 +15380,10 @@
         <v>102471621620648</v>
       </c>
       <c r="B308" s="26"/>
-      <c r="C308" s="21" t="s">
+      <c r="C308" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D308" s="21" t="s">
+      <c r="D308" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E308" s="31" t="s">
@@ -15414,10 +15412,10 @@
         <v>102471000003228</v>
       </c>
       <c r="B309" s="26"/>
-      <c r="C309" s="21" t="s">
+      <c r="C309" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D309" s="21" t="s">
+      <c r="D309" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E309" s="27" t="s">
@@ -15446,10 +15444,10 @@
         <v>102471230410099</v>
       </c>
       <c r="B310" s="26"/>
-      <c r="C310" s="21" t="s">
+      <c r="C310" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="D310" s="21" t="s">
+      <c r="D310" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E310" s="31" t="s">
@@ -15478,10 +15476,10 @@
         <v>102471000003073</v>
       </c>
       <c r="B311" s="26"/>
-      <c r="C311" s="21" t="s">
+      <c r="C311" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="D311" s="21" t="s">
+      <c r="D311" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E311" s="27" t="s">
@@ -15510,10 +15508,10 @@
         <v>102471321110749</v>
       </c>
       <c r="B312" s="26"/>
-      <c r="C312" s="21" t="s">
+      <c r="C312" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="D312" s="21" t="s">
+      <c r="D312" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E312" s="31" t="s">
@@ -15542,10 +15540,10 @@
         <v>102471000003799</v>
       </c>
       <c r="B313" s="26"/>
-      <c r="C313" s="21" t="s">
+      <c r="C313" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="D313" s="21" t="s">
+      <c r="D313" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E313" s="31" t="s">
@@ -15574,10 +15572,10 @@
         <v>102471321411325</v>
       </c>
       <c r="B314" s="26"/>
-      <c r="C314" s="21" t="s">
+      <c r="C314" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="D314" s="21" t="s">
+      <c r="D314" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E314" s="27" t="s">
@@ -15606,10 +15604,10 @@
         <v>102471360415501</v>
       </c>
       <c r="B315" s="26"/>
-      <c r="C315" s="21" t="s">
+      <c r="C315" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="D315" s="21" t="s">
+      <c r="D315" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E315" s="31" t="s">
@@ -15638,10 +15636,10 @@
         <v>102471000002812</v>
       </c>
       <c r="B316" s="26"/>
-      <c r="C316" s="21" t="s">
+      <c r="C316" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="D316" s="21" t="s">
+      <c r="D316" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E316" s="27" t="s">
@@ -15670,10 +15668,10 @@
         <v>102471000008178</v>
       </c>
       <c r="B317" s="26"/>
-      <c r="C317" s="21" t="s">
+      <c r="C317" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="D317" s="21" t="s">
+      <c r="D317" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E317" s="27" t="s">
@@ -15702,10 +15700,10 @@
         <v>102471321411389</v>
       </c>
       <c r="B318" s="26"/>
-      <c r="C318" s="21" t="s">
+      <c r="C318" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="D318" s="21" t="s">
+      <c r="D318" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E318" s="31" t="s">
@@ -15734,10 +15732,10 @@
         <v>102471321411313</v>
       </c>
       <c r="B319" s="26"/>
-      <c r="C319" s="21" t="s">
+      <c r="C319" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="D319" s="21" t="s">
+      <c r="D319" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E319" s="27" t="s">
@@ -15766,10 +15764,10 @@
         <v>102471000003381</v>
       </c>
       <c r="B320" s="26"/>
-      <c r="C320" s="21" t="s">
+      <c r="C320" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D320" s="21" t="s">
+      <c r="D320" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E320" s="27" t="s">
@@ -15798,10 +15796,10 @@
         <v>102471000003286</v>
       </c>
       <c r="B321" s="26"/>
-      <c r="C321" s="21" t="s">
+      <c r="C321" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="D321" s="21" t="s">
+      <c r="D321" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E321" s="27" t="s">
@@ -15830,10 +15828,10 @@
         <v>102471000002959</v>
       </c>
       <c r="B322" s="26"/>
-      <c r="C322" s="21" t="s">
+      <c r="C322" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D322" s="21" t="s">
+      <c r="D322" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E322" s="27" t="s">
@@ -15862,10 +15860,10 @@
         <v>102471000003821</v>
       </c>
       <c r="B323" s="26"/>
-      <c r="C323" s="21" t="s">
+      <c r="C323" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="D323" s="21" t="s">
+      <c r="D323" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E323" s="31" t="s">
@@ -15894,10 +15892,10 @@
         <v>102471321411284</v>
       </c>
       <c r="B324" s="26"/>
-      <c r="C324" s="21" t="s">
+      <c r="C324" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="D324" s="21" t="s">
+      <c r="D324" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E324" s="27" t="s">
@@ -15926,10 +15924,10 @@
         <v>102471000003181</v>
       </c>
       <c r="B325" s="26"/>
-      <c r="C325" s="21" t="s">
+      <c r="C325" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="D325" s="21" t="s">
+      <c r="D325" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E325" s="27" t="s">
@@ -15958,10 +15956,10 @@
         <v>102471000002904</v>
       </c>
       <c r="B326" s="26"/>
-      <c r="C326" s="21" t="s">
+      <c r="C326" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="D326" s="21" t="s">
+      <c r="D326" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E326" s="27" t="s">
@@ -15990,10 +15988,10 @@
         <v>102471000002986</v>
       </c>
       <c r="B327" s="26"/>
-      <c r="C327" s="21" t="s">
+      <c r="C327" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="D327" s="21" t="s">
+      <c r="D327" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E327" s="27" t="s">
@@ -16022,10 +16020,10 @@
         <v>102471321511826</v>
       </c>
       <c r="B328" s="26"/>
-      <c r="C328" s="21" t="s">
+      <c r="C328" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D328" s="21" t="s">
+      <c r="D328" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E328" s="27" t="s">
@@ -16054,10 +16052,10 @@
         <v>102471321411331</v>
       </c>
       <c r="B329" s="26"/>
-      <c r="C329" s="21" t="s">
+      <c r="C329" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D329" s="21" t="s">
+      <c r="D329" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E329" s="27" t="s">
@@ -16086,10 +16084,10 @@
         <v>102471330113025</v>
       </c>
       <c r="B330" s="26"/>
-      <c r="C330" s="21" t="s">
+      <c r="C330" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D330" s="21" t="s">
+      <c r="D330" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E330" s="31" t="s">
@@ -16118,10 +16116,10 @@
         <v>102471000003129</v>
       </c>
       <c r="B331" s="26"/>
-      <c r="C331" s="21" t="s">
+      <c r="C331" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="D331" s="21" t="s">
+      <c r="D331" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E331" s="27" t="s">
@@ -16150,10 +16148,10 @@
         <v>102471330613812</v>
       </c>
       <c r="B332" s="26"/>
-      <c r="C332" s="21" t="s">
+      <c r="C332" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D332" s="21" t="s">
+      <c r="D332" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E332" s="27" t="s">
@@ -16182,10 +16180,10 @@
         <v>102471370216098</v>
       </c>
       <c r="B333" s="26"/>
-      <c r="C333" s="21" t="s">
+      <c r="C333" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="D333" s="21" t="s">
+      <c r="D333" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E333" s="27" t="s">
@@ -16214,10 +16212,10 @@
         <v>102471000003240</v>
       </c>
       <c r="B334" s="26"/>
-      <c r="C334" s="21" t="s">
+      <c r="C334" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D334" s="21" t="s">
+      <c r="D334" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E334" s="27" t="s">
@@ -16246,10 +16244,10 @@
         <v>102471321411363</v>
       </c>
       <c r="B335" s="26"/>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="D335" s="21" t="s">
+      <c r="D335" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E335" s="27" t="s">
@@ -16278,10 +16276,10 @@
         <v>102471000008164</v>
       </c>
       <c r="B336" s="26"/>
-      <c r="C336" s="21" t="s">
+      <c r="C336" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D336" s="21" t="s">
+      <c r="D336" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E336" s="27" t="s">
@@ -16310,10 +16308,10 @@
         <v>102471000002773</v>
       </c>
       <c r="B337" s="26"/>
-      <c r="C337" s="21" t="s">
+      <c r="C337" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="D337" s="21" t="s">
+      <c r="D337" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E337" s="27" t="s">
@@ -16342,10 +16340,10 @@
         <v>102471000002815</v>
       </c>
       <c r="B338" s="26"/>
-      <c r="C338" s="21" t="s">
+      <c r="C338" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D338" s="21" t="s">
+      <c r="D338" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E338" s="27" t="s">
@@ -16374,10 +16372,10 @@
         <v>102471000003323</v>
       </c>
       <c r="B339" s="26"/>
-      <c r="C339" s="21" t="s">
+      <c r="C339" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D339" s="21" t="s">
+      <c r="D339" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E339" s="27" t="s">
@@ -16406,10 +16404,10 @@
         <v>102471000002992</v>
       </c>
       <c r="B340" s="26"/>
-      <c r="C340" s="21" t="s">
+      <c r="C340" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="D340" s="21" t="s">
+      <c r="D340" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E340" s="27" t="s">
@@ -16438,10 +16436,10 @@
         <v>102471000003327</v>
       </c>
       <c r="B341" s="26"/>
-      <c r="C341" s="21" t="s">
+      <c r="C341" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D341" s="21" t="s">
+      <c r="D341" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E341" s="27" t="s">
@@ -16470,10 +16468,10 @@
         <v>102471321411296</v>
       </c>
       <c r="B342" s="26"/>
-      <c r="C342" s="21" t="s">
+      <c r="C342" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="D342" s="21" t="s">
+      <c r="D342" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E342" s="27" t="s">
@@ -16502,10 +16500,10 @@
         <v>102471000003237</v>
       </c>
       <c r="B343" s="26"/>
-      <c r="C343" s="21" t="s">
+      <c r="C343" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D343" s="21" t="s">
+      <c r="D343" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E343" s="27" t="s">
@@ -16534,10 +16532,10 @@
         <v>102471321110755</v>
       </c>
       <c r="B344" s="26"/>
-      <c r="C344" s="21" t="s">
+      <c r="C344" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D344" s="21" t="s">
+      <c r="D344" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E344" s="27" t="s">
@@ -16566,10 +16564,10 @@
         <v>102471000002931</v>
       </c>
       <c r="B345" s="26"/>
-      <c r="C345" s="21" t="s">
+      <c r="C345" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="D345" s="21" t="s">
+      <c r="D345" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E345" s="27" t="s">
@@ -16598,10 +16596,10 @@
         <v>102471321411359</v>
       </c>
       <c r="B346" s="26"/>
-      <c r="C346" s="21" t="s">
+      <c r="C346" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="D346" s="21" t="s">
+      <c r="D346" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E346" s="27" t="s">
@@ -16630,10 +16628,10 @@
         <v>102471000003311</v>
       </c>
       <c r="B347" s="26"/>
-      <c r="C347" s="21" t="s">
+      <c r="C347" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="D347" s="21" t="s">
+      <c r="D347" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E347" s="27" t="s">
@@ -16662,10 +16660,10 @@
         <v>102471000003358</v>
       </c>
       <c r="B348" s="26"/>
-      <c r="C348" s="21" t="s">
+      <c r="C348" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="D348" s="21" t="s">
+      <c r="D348" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E348" s="27" t="s">
@@ -16694,10 +16692,10 @@
         <v>102471000002977</v>
       </c>
       <c r="B349" s="26"/>
-      <c r="C349" s="21" t="s">
+      <c r="C349" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D349" s="21" t="s">
+      <c r="D349" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E349" s="27" t="s">
@@ -16726,10 +16724,10 @@
         <v>102471000002821</v>
       </c>
       <c r="B350" s="26"/>
-      <c r="C350" s="21" t="s">
+      <c r="C350" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="D350" s="21" t="s">
+      <c r="D350" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E350" s="27" t="s">
@@ -16758,10 +16756,10 @@
         <v>102471210909639</v>
       </c>
       <c r="B351" s="26"/>
-      <c r="C351" s="21" t="s">
+      <c r="C351" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="D351" s="21" t="s">
+      <c r="D351" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E351" s="27" t="s">
@@ -16790,10 +16788,10 @@
         <v>102471321411303</v>
       </c>
       <c r="B352" s="26"/>
-      <c r="C352" s="21" t="s">
+      <c r="C352" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="D352" s="21" t="s">
+      <c r="D352" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E352" s="27" t="s">
@@ -16822,10 +16820,10 @@
         <v>102471000003229</v>
       </c>
       <c r="B353" s="26"/>
-      <c r="C353" s="21" t="s">
+      <c r="C353" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="D353" s="21" t="s">
+      <c r="D353" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E353" s="27" t="s">
@@ -16854,10 +16852,10 @@
         <v>102471000003046</v>
       </c>
       <c r="B354" s="26"/>
-      <c r="C354" s="21" t="s">
+      <c r="C354" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D354" s="21" t="s">
+      <c r="D354" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E354" s="27" t="s">
@@ -16886,10 +16884,10 @@
         <v>102471000002775</v>
       </c>
       <c r="B355" s="26"/>
-      <c r="C355" s="21" t="s">
+      <c r="C355" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="D355" s="21" t="s">
+      <c r="D355" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E355" s="27" t="s">
@@ -16918,10 +16916,10 @@
         <v>102471321511822</v>
       </c>
       <c r="B356" s="26"/>
-      <c r="C356" s="21" t="s">
+      <c r="C356" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="D356" s="21" t="s">
+      <c r="D356" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E356" s="27" t="s">
@@ -16950,10 +16948,10 @@
         <v>102471000002997</v>
       </c>
       <c r="B357" s="26"/>
-      <c r="C357" s="21" t="s">
+      <c r="C357" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="D357" s="21" t="s">
+      <c r="D357" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E357" s="27" t="s">
@@ -16982,10 +16980,10 @@
         <v>102471000003371</v>
       </c>
       <c r="B358" s="26"/>
-      <c r="C358" s="21" t="s">
+      <c r="C358" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="D358" s="21" t="s">
+      <c r="D358" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E358" s="27" t="s">
@@ -17014,10 +17012,10 @@
         <v>102471321411337</v>
       </c>
       <c r="B359" s="26"/>
-      <c r="C359" s="21" t="s">
+      <c r="C359" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="D359" s="21" t="s">
+      <c r="D359" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E359" s="27" t="s">
@@ -17046,10 +17044,10 @@
         <v>102471000003243</v>
       </c>
       <c r="B360" s="26"/>
-      <c r="C360" s="21" t="s">
+      <c r="C360" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="D360" s="21" t="s">
+      <c r="D360" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E360" s="31" t="s">
@@ -17078,10 +17076,10 @@
         <v>102471000003282</v>
       </c>
       <c r="B361" s="26"/>
-      <c r="C361" s="21" t="s">
+      <c r="C361" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="D361" s="21" t="s">
+      <c r="D361" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E361" s="27" t="s">
@@ -17110,10 +17108,10 @@
         <v>102471000003366</v>
       </c>
       <c r="B362" s="26"/>
-      <c r="C362" s="21" t="s">
+      <c r="C362" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="D362" s="21" t="s">
+      <c r="D362" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E362" s="27" t="s">
@@ -17142,10 +17140,10 @@
         <v>102471000003760</v>
       </c>
       <c r="B363" s="26"/>
-      <c r="C363" s="21" t="s">
+      <c r="C363" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="D363" s="21" t="s">
+      <c r="D363" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E363" s="31" t="s">
@@ -17174,10 +17172,10 @@
         <v>102471000003277</v>
       </c>
       <c r="B364" s="26"/>
-      <c r="C364" s="21" t="s">
+      <c r="C364" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="D364" s="21" t="s">
+      <c r="D364" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E364" s="27" t="s">
@@ -17206,10 +17204,10 @@
         <v>102471000003246</v>
       </c>
       <c r="B365" s="26"/>
-      <c r="C365" s="21" t="s">
+      <c r="C365" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="D365" s="21" t="s">
+      <c r="D365" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E365" s="27" t="s">
@@ -17238,10 +17236,10 @@
         <v>102471000002970</v>
       </c>
       <c r="B366" s="26"/>
-      <c r="C366" s="21" t="s">
+      <c r="C366" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="D366" s="21" t="s">
+      <c r="D366" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E366" s="27" t="s">
@@ -17270,10 +17268,10 @@
         <v>102471441118480</v>
       </c>
       <c r="B367" s="26"/>
-      <c r="C367" s="21" t="s">
+      <c r="C367" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="D367" s="21" t="s">
+      <c r="D367" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E367" s="27" t="s">
@@ -17317,7 +17315,7 @@
       <c r="A369" s="38"/>
       <c r="B369" s="38"/>
       <c r="C369" s="39"/>
-      <c r="D369" s="21" t="s">
+      <c r="D369" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E369" s="27" t="s">
@@ -17325,7 +17323,7 @@
       </c>
       <c r="F369" s="28"/>
       <c r="G369" s="29"/>
-      <c r="H369" s="14" t="s">
+      <c r="H369" s="15" t="s">
         <v>417</v>
       </c>
       <c r="I369" s="41" t="s">
@@ -17339,7 +17337,7 @@
       <c r="A370" s="38"/>
       <c r="B370" s="38"/>
       <c r="C370" s="39"/>
-      <c r="D370" s="21" t="s">
+      <c r="D370" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E370" s="31" t="s">
@@ -17359,7 +17357,7 @@
       <c r="A371" s="38"/>
       <c r="B371" s="38"/>
       <c r="C371" s="39"/>
-      <c r="D371" s="21" t="s">
+      <c r="D371" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E371" s="27" t="s">
@@ -17379,7 +17377,7 @@
       <c r="A372" s="38"/>
       <c r="B372" s="38"/>
       <c r="C372" s="39"/>
-      <c r="D372" s="21" t="s">
+      <c r="D372" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E372" s="27" t="s">
@@ -17399,7 +17397,7 @@
       <c r="A373" s="38"/>
       <c r="B373" s="38"/>
       <c r="C373" s="39"/>
-      <c r="D373" s="21" t="s">
+      <c r="D373" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E373" s="27" t="s">
@@ -17419,7 +17417,7 @@
       <c r="A374" s="38"/>
       <c r="B374" s="38"/>
       <c r="C374" s="39"/>
-      <c r="D374" s="21" t="s">
+      <c r="D374" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E374" s="27" t="s">
@@ -17439,7 +17437,7 @@
       <c r="A375" s="38"/>
       <c r="B375" s="38"/>
       <c r="C375" s="39"/>
-      <c r="D375" s="21" t="s">
+      <c r="D375" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E375" s="27" t="s">
@@ -17459,7 +17457,7 @@
       <c r="A376" s="38"/>
       <c r="B376" s="38"/>
       <c r="C376" s="39"/>
-      <c r="D376" s="21" t="s">
+      <c r="D376" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E376" s="27" t="s">
@@ -17479,7 +17477,7 @@
       <c r="A377" s="38"/>
       <c r="B377" s="38"/>
       <c r="C377" s="39"/>
-      <c r="D377" s="21" t="s">
+      <c r="D377" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E377" s="27" t="s">
@@ -17499,7 +17497,7 @@
       <c r="A378" s="38"/>
       <c r="B378" s="38"/>
       <c r="C378" s="39"/>
-      <c r="D378" s="21" t="s">
+      <c r="D378" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E378" s="27" t="s">
@@ -17519,7 +17517,7 @@
       <c r="A379" s="38"/>
       <c r="B379" s="38"/>
       <c r="C379" s="39"/>
-      <c r="D379" s="21" t="s">
+      <c r="D379" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E379" s="27" t="s">
@@ -17539,7 +17537,7 @@
       <c r="A380" s="38"/>
       <c r="B380" s="38"/>
       <c r="C380" s="39"/>
-      <c r="D380" s="21" t="s">
+      <c r="D380" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E380" s="27" t="s">
@@ -17559,7 +17557,7 @@
       <c r="A381" s="38"/>
       <c r="B381" s="38"/>
       <c r="C381" s="39"/>
-      <c r="D381" s="21" t="s">
+      <c r="D381" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E381" s="27" t="s">
@@ -17579,7 +17577,7 @@
       <c r="A382" s="38"/>
       <c r="B382" s="38"/>
       <c r="C382" s="39"/>
-      <c r="D382" s="21" t="s">
+      <c r="D382" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E382" s="27" t="s">
@@ -17599,7 +17597,7 @@
       <c r="A383" s="38"/>
       <c r="B383" s="38"/>
       <c r="C383" s="39"/>
-      <c r="D383" s="21" t="s">
+      <c r="D383" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E383" s="27" t="s">
@@ -17619,7 +17617,7 @@
       <c r="A384" s="38"/>
       <c r="B384" s="38"/>
       <c r="C384" s="39"/>
-      <c r="D384" s="21" t="s">
+      <c r="D384" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E384" s="27" t="s">
@@ -17639,7 +17637,7 @@
       <c r="A385" s="38"/>
       <c r="B385" s="38"/>
       <c r="C385" s="39"/>
-      <c r="D385" s="21" t="s">
+      <c r="D385" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E385" s="27" t="s">
@@ -17659,7 +17657,7 @@
       <c r="A386" s="38"/>
       <c r="B386" s="38"/>
       <c r="C386" s="39"/>
-      <c r="D386" s="21" t="s">
+      <c r="D386" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E386" s="27" t="s">
@@ -17679,7 +17677,7 @@
       <c r="A387" s="38"/>
       <c r="B387" s="38"/>
       <c r="C387" s="39"/>
-      <c r="D387" s="21" t="s">
+      <c r="D387" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E387" s="31" t="s">
@@ -17699,7 +17697,7 @@
       <c r="A388" s="38"/>
       <c r="B388" s="38"/>
       <c r="C388" s="39"/>
-      <c r="D388" s="21" t="s">
+      <c r="D388" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E388" s="27" t="s">
@@ -17719,7 +17717,7 @@
       <c r="A389" s="38"/>
       <c r="B389" s="38"/>
       <c r="C389" s="39"/>
-      <c r="D389" s="21" t="s">
+      <c r="D389" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E389" s="27" t="s">
@@ -17739,7 +17737,7 @@
       <c r="A390" s="38"/>
       <c r="B390" s="38"/>
       <c r="C390" s="39"/>
-      <c r="D390" s="21" t="s">
+      <c r="D390" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E390" s="27" t="s">
@@ -17759,7 +17757,7 @@
       <c r="A391" s="38"/>
       <c r="B391" s="38"/>
       <c r="C391" s="39"/>
-      <c r="D391" s="21" t="s">
+      <c r="D391" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E391" s="27" t="s">
@@ -17779,7 +17777,7 @@
       <c r="A392" s="38"/>
       <c r="B392" s="38"/>
       <c r="C392" s="39"/>
-      <c r="D392" s="21" t="s">
+      <c r="D392" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E392" s="27" t="s">
@@ -17799,7 +17797,7 @@
       <c r="A393" s="38"/>
       <c r="B393" s="38"/>
       <c r="C393" s="39"/>
-      <c r="D393" s="21" t="s">
+      <c r="D393" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E393" s="27" t="s">
@@ -17819,7 +17817,7 @@
       <c r="A394" s="38"/>
       <c r="B394" s="38"/>
       <c r="C394" s="39"/>
-      <c r="D394" s="21" t="s">
+      <c r="D394" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E394" s="27" t="s">
@@ -17839,7 +17837,7 @@
       <c r="A395" s="38"/>
       <c r="B395" s="38"/>
       <c r="C395" s="39"/>
-      <c r="D395" s="21" t="s">
+      <c r="D395" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E395" s="27" t="s">
@@ -17859,7 +17857,7 @@
       <c r="A396" s="38"/>
       <c r="B396" s="38"/>
       <c r="C396" s="39"/>
-      <c r="D396" s="21" t="s">
+      <c r="D396" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E396" s="27" t="s">
@@ -17876,7 +17874,7 @@
       <c r="L396" s="42"/>
     </row>
     <row r="397" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A397" s="21" t="s">
+      <c r="A397" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B397" s="27" t="s">
@@ -17891,7 +17889,7 @@
       <c r="L397"/>
     </row>
     <row r="398" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A398" s="21" t="s">
+      <c r="A398" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B398" s="27" t="s">
@@ -17906,7 +17904,7 @@
       <c r="L398"/>
     </row>
     <row r="399" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A399" s="21" t="s">
+      <c r="A399" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B399" s="27" t="s">
@@ -17921,7 +17919,7 @@
       <c r="L399"/>
     </row>
     <row r="400" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A400" s="21" t="s">
+      <c r="A400" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B400" s="27" t="s">
@@ -17936,7 +17934,7 @@
       <c r="L400"/>
     </row>
     <row r="401" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A401" s="21" t="s">
+      <c r="A401" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B401" s="27" t="s">
@@ -17951,7 +17949,7 @@
       <c r="L401"/>
     </row>
     <row r="402" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B402" s="27" t="s">
@@ -17966,7 +17964,7 @@
       <c r="L402"/>
     </row>
     <row r="403" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A403" s="21" t="s">
+      <c r="A403" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B403" s="27" t="s">
@@ -17981,7 +17979,7 @@
       <c r="L403"/>
     </row>
     <row r="404" ht="21.75" hidden="1" customHeight="1" spans="1:12">
-      <c r="A404" s="21" t="s">
+      <c r="A404" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B404" s="27" t="s">
@@ -18790,7 +18788,7 @@
   <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -18805,9 +18803,9 @@
       <c r="G1" s="7"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" ht="13.8" spans="1:12">
       <c r="A2" s="8">
@@ -18837,7 +18835,7 @@
       <c r="K2" s="13">
         <v>115</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="17">
         <v>327</v>
       </c>
     </row>
@@ -18869,7 +18867,7 @@
       <c r="K3" s="13">
         <v>109</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="17">
         <v>367</v>
       </c>
     </row>
@@ -18901,7 +18899,7 @@
       <c r="K4" s="13">
         <v>76</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="17">
         <v>266</v>
       </c>
     </row>
@@ -18933,7 +18931,7 @@
       <c r="K5" s="13">
         <v>101</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="17">
         <v>377</v>
       </c>
     </row>
@@ -18942,8 +18940,8 @@
         <v>102471000002984</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
+      <c r="C6" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
@@ -18965,7 +18963,7 @@
       <c r="K6" s="13">
         <v>107</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="17">
         <v>373</v>
       </c>
     </row>
@@ -18997,7 +18995,7 @@
       <c r="K7" s="13">
         <v>119</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="17">
         <v>351</v>
       </c>
     </row>
@@ -19029,7 +19027,7 @@
       <c r="K8" s="13">
         <v>94</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="17">
         <v>322</v>
       </c>
     </row>
@@ -19061,7 +19059,7 @@
       <c r="K9" s="13">
         <v>94</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="17">
         <v>331</v>
       </c>
     </row>
@@ -19093,7 +19091,7 @@
       <c r="K10" s="13">
         <v>102</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="17">
         <v>360</v>
       </c>
     </row>
@@ -19125,7 +19123,7 @@
       <c r="K11" s="13">
         <v>92</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="17">
         <v>295</v>
       </c>
     </row>
@@ -19157,7 +19155,7 @@
       <c r="K12" s="13">
         <v>88</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="17">
         <v>327</v>
       </c>
     </row>
@@ -19189,7 +19187,7 @@
       <c r="K13" s="13">
         <v>117</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="17">
         <v>295</v>
       </c>
     </row>
@@ -19221,7 +19219,7 @@
       <c r="K14" s="13">
         <v>101</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="17">
         <v>342</v>
       </c>
     </row>
@@ -19253,7 +19251,7 @@
       <c r="K15" s="13">
         <v>84</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="17">
         <v>296</v>
       </c>
     </row>
@@ -19285,7 +19283,7 @@
       <c r="K16" s="13">
         <v>109</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="17">
         <v>310</v>
       </c>
     </row>
@@ -19317,7 +19315,7 @@
       <c r="K17" s="13">
         <v>124</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="17">
         <v>356</v>
       </c>
     </row>
@@ -19349,7 +19347,7 @@
       <c r="K18" s="13">
         <v>95</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="17">
         <v>334</v>
       </c>
     </row>
@@ -19381,7 +19379,7 @@
       <c r="K19" s="13">
         <v>68</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="17">
         <v>271</v>
       </c>
     </row>
@@ -19413,7 +19411,7 @@
       <c r="K20" s="13">
         <v>109</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="17">
         <v>305</v>
       </c>
     </row>
@@ -19445,7 +19443,7 @@
       <c r="K21" s="13">
         <v>96</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="17">
         <v>273</v>
       </c>
     </row>
@@ -19477,7 +19475,7 @@
       <c r="K22" s="13">
         <v>137</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="17">
         <v>368</v>
       </c>
     </row>
@@ -19509,7 +19507,7 @@
       <c r="K23" s="13">
         <v>116</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="17">
         <v>317</v>
       </c>
     </row>
@@ -19541,7 +19539,7 @@
       <c r="K24" s="13">
         <v>116</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="17">
         <v>298</v>
       </c>
     </row>
@@ -19573,7 +19571,7 @@
       <c r="K25" s="13">
         <v>112</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="17">
         <v>277</v>
       </c>
     </row>
@@ -19605,7 +19603,7 @@
       <c r="K26" s="13">
         <v>97</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="17">
         <v>308</v>
       </c>
     </row>
@@ -19637,7 +19635,7 @@
       <c r="K27" s="13">
         <v>116</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="17">
         <v>359</v>
       </c>
     </row>
@@ -19669,7 +19667,7 @@
       <c r="K28" s="13">
         <v>129</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="17">
         <v>382</v>
       </c>
     </row>
@@ -19701,7 +19699,7 @@
       <c r="K29" s="13">
         <v>82</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="17">
         <v>280</v>
       </c>
     </row>
@@ -19733,7 +19731,7 @@
       <c r="K30" s="13">
         <v>105</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="17">
         <v>283</v>
       </c>
     </row>
@@ -19765,7 +19763,7 @@
       <c r="K31" s="13">
         <v>96</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="17">
         <v>294</v>
       </c>
     </row>
@@ -19797,7 +19795,7 @@
       <c r="K32" s="13">
         <v>87</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="17">
         <v>303</v>
       </c>
     </row>
@@ -19829,7 +19827,7 @@
       <c r="K33" s="13">
         <v>60</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="17">
         <v>330</v>
       </c>
     </row>
@@ -19861,7 +19859,7 @@
       <c r="K34" s="13">
         <v>113</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="17">
         <v>396</v>
       </c>
     </row>
@@ -19893,7 +19891,7 @@
       <c r="K35" s="13">
         <v>104</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="17">
         <v>325</v>
       </c>
     </row>
@@ -19925,7 +19923,7 @@
       <c r="K36" s="13">
         <v>116</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="17">
         <v>302</v>
       </c>
     </row>
@@ -19957,7 +19955,7 @@
       <c r="K37" s="13">
         <v>119</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="17">
         <v>354</v>
       </c>
     </row>
@@ -19989,7 +19987,7 @@
       <c r="K38" s="13">
         <v>117</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="17">
         <v>317</v>
       </c>
     </row>
@@ -20021,7 +20019,7 @@
       <c r="K39" s="13">
         <v>110</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="17">
         <v>265</v>
       </c>
     </row>
@@ -20053,7 +20051,7 @@
       <c r="K40" s="13">
         <v>93</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L40" s="17">
         <v>346</v>
       </c>
     </row>
@@ -20085,7 +20083,7 @@
       <c r="K41" s="13">
         <v>79</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L41" s="17">
         <v>296</v>
       </c>
     </row>
@@ -20117,7 +20115,7 @@
       <c r="K42" s="13">
         <v>95</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="17">
         <v>278</v>
       </c>
     </row>
@@ -20149,7 +20147,7 @@
       <c r="K43" s="13">
         <v>65</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="17">
         <v>265</v>
       </c>
     </row>
@@ -20181,7 +20179,7 @@
       <c r="K44" s="13">
         <v>83</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="17">
         <v>294</v>
       </c>
     </row>
@@ -20213,7 +20211,7 @@
       <c r="K45" s="13">
         <v>75</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L45" s="17">
         <v>266</v>
       </c>
     </row>
@@ -20245,7 +20243,7 @@
       <c r="K46" s="13">
         <v>88</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="17">
         <v>264</v>
       </c>
     </row>
@@ -20277,7 +20275,7 @@
       <c r="K47" s="13">
         <v>71</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L47" s="17">
         <v>270</v>
       </c>
     </row>
@@ -20309,7 +20307,7 @@
       <c r="K48" s="13">
         <v>97</v>
       </c>
-      <c r="L48" s="16">
+      <c r="L48" s="17">
         <v>331</v>
       </c>
     </row>
@@ -20341,7 +20339,7 @@
       <c r="K49" s="13">
         <v>77</v>
       </c>
-      <c r="L49" s="16">
+      <c r="L49" s="17">
         <v>317</v>
       </c>
     </row>
@@ -20373,7 +20371,7 @@
       <c r="K50" s="13">
         <v>114</v>
       </c>
-      <c r="L50" s="16">
+      <c r="L50" s="17">
         <v>357</v>
       </c>
     </row>
@@ -20405,7 +20403,7 @@
       <c r="K51" s="13">
         <v>99</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L51" s="17">
         <v>353</v>
       </c>
     </row>
@@ -20437,7 +20435,7 @@
       <c r="K52" s="13">
         <v>118</v>
       </c>
-      <c r="L52" s="16">
+      <c r="L52" s="17">
         <v>344</v>
       </c>
     </row>
@@ -20469,7 +20467,7 @@
       <c r="K53" s="13">
         <v>75</v>
       </c>
-      <c r="L53" s="16">
+      <c r="L53" s="17">
         <v>276</v>
       </c>
     </row>
@@ -20501,7 +20499,7 @@
       <c r="K54" s="13">
         <v>108</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L54" s="17">
         <v>274</v>
       </c>
     </row>
@@ -20533,7 +20531,7 @@
       <c r="K55" s="13">
         <v>104</v>
       </c>
-      <c r="L55" s="16">
+      <c r="L55" s="17">
         <v>280</v>
       </c>
     </row>
@@ -20565,7 +20563,7 @@
       <c r="K56" s="13">
         <v>125</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L56" s="17">
         <v>323</v>
       </c>
     </row>
@@ -20597,7 +20595,7 @@
       <c r="K57" s="13">
         <v>91</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="17">
         <v>343</v>
       </c>
     </row>
@@ -20629,7 +20627,7 @@
       <c r="K58" s="13">
         <v>106</v>
       </c>
-      <c r="L58" s="16">
+      <c r="L58" s="17">
         <v>346</v>
       </c>
     </row>
@@ -20661,7 +20659,7 @@
       <c r="K59" s="13">
         <v>83</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="17">
         <v>270</v>
       </c>
     </row>
@@ -20693,7 +20691,7 @@
       <c r="K60" s="13">
         <v>111</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="17">
         <v>281</v>
       </c>
     </row>
@@ -20725,7 +20723,7 @@
       <c r="K61" s="13">
         <v>81</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="17">
         <v>334</v>
       </c>
     </row>
@@ -20757,7 +20755,7 @@
       <c r="K62" s="13">
         <v>105</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L62" s="17">
         <v>293</v>
       </c>
     </row>
@@ -20789,7 +20787,7 @@
       <c r="K63" s="13">
         <v>66</v>
       </c>
-      <c r="L63" s="16">
+      <c r="L63" s="17">
         <v>271</v>
       </c>
     </row>
@@ -20821,7 +20819,7 @@
       <c r="K64" s="13">
         <v>113</v>
       </c>
-      <c r="L64" s="16">
+      <c r="L64" s="17">
         <v>318</v>
       </c>
     </row>
@@ -20853,7 +20851,7 @@
       <c r="K65" s="13">
         <v>78</v>
       </c>
-      <c r="L65" s="16">
+      <c r="L65" s="17">
         <v>277</v>
       </c>
     </row>
@@ -20885,7 +20883,7 @@
       <c r="K66" s="13">
         <v>113</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L66" s="17">
         <v>356</v>
       </c>
     </row>
@@ -20917,7 +20915,7 @@
       <c r="K67" s="13">
         <v>111</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L67" s="17">
         <v>292</v>
       </c>
     </row>
@@ -20949,7 +20947,7 @@
       <c r="K68" s="13">
         <v>111</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="17">
         <v>358</v>
       </c>
     </row>
@@ -20981,7 +20979,7 @@
       <c r="K69" s="13">
         <v>102</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L69" s="17">
         <v>359</v>
       </c>
     </row>
@@ -21013,7 +21011,7 @@
       <c r="K70" s="13">
         <v>83</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L70" s="17">
         <v>321</v>
       </c>
     </row>
@@ -21045,7 +21043,7 @@
       <c r="K71" s="13">
         <v>64</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L71" s="17">
         <v>278</v>
       </c>
     </row>
@@ -21077,7 +21075,7 @@
       <c r="K72" s="13">
         <v>73</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="17">
         <v>318</v>
       </c>
     </row>
@@ -21109,7 +21107,7 @@
       <c r="K73" s="13">
         <v>115</v>
       </c>
-      <c r="L73" s="16">
+      <c r="L73" s="17">
         <v>335</v>
       </c>
     </row>
@@ -21141,7 +21139,7 @@
       <c r="K74" s="13">
         <v>114</v>
       </c>
-      <c r="L74" s="16">
+      <c r="L74" s="17">
         <v>334</v>
       </c>
     </row>
@@ -21173,7 +21171,7 @@
       <c r="K75" s="13">
         <v>73</v>
       </c>
-      <c r="L75" s="16">
+      <c r="L75" s="17">
         <v>299</v>
       </c>
     </row>
@@ -21205,7 +21203,7 @@
       <c r="K76" s="13">
         <v>121</v>
       </c>
-      <c r="L76" s="16">
+      <c r="L76" s="17">
         <v>373</v>
       </c>
     </row>
@@ -21237,7 +21235,7 @@
       <c r="K77" s="13">
         <v>118</v>
       </c>
-      <c r="L77" s="16">
+      <c r="L77" s="17">
         <v>347</v>
       </c>
     </row>
@@ -21269,7 +21267,7 @@
       <c r="K78" s="13">
         <v>84</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L78" s="17">
         <v>274</v>
       </c>
     </row>
@@ -21301,7 +21299,7 @@
       <c r="K79" s="13">
         <v>104</v>
       </c>
-      <c r="L79" s="16">
+      <c r="L79" s="17">
         <v>276</v>
       </c>
     </row>
@@ -21333,7 +21331,7 @@
       <c r="K80" s="13">
         <v>79</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L80" s="17">
         <v>282</v>
       </c>
     </row>
@@ -21365,7 +21363,7 @@
       <c r="K81" s="13">
         <v>109</v>
       </c>
-      <c r="L81" s="16">
+      <c r="L81" s="17">
         <v>319</v>
       </c>
     </row>
@@ -21397,7 +21395,7 @@
       <c r="K82" s="13">
         <v>128</v>
       </c>
-      <c r="L82" s="16">
+      <c r="L82" s="17">
         <v>355</v>
       </c>
     </row>
@@ -21429,7 +21427,7 @@
       <c r="K83" s="13">
         <v>98</v>
       </c>
-      <c r="L83" s="16">
+      <c r="L83" s="17">
         <v>315</v>
       </c>
     </row>
@@ -21461,7 +21459,7 @@
       <c r="K84" s="13">
         <v>120</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L84" s="17">
         <v>363</v>
       </c>
     </row>
@@ -21493,7 +21491,7 @@
       <c r="K85" s="13">
         <v>97</v>
       </c>
-      <c r="L85" s="16">
+      <c r="L85" s="17">
         <v>341</v>
       </c>
     </row>
@@ -21525,7 +21523,7 @@
       <c r="K86" s="13">
         <v>120</v>
       </c>
-      <c r="L86" s="16">
+      <c r="L86" s="17">
         <v>372</v>
       </c>
     </row>
@@ -21557,7 +21555,7 @@
       <c r="K87" s="13">
         <v>97</v>
       </c>
-      <c r="L87" s="16">
+      <c r="L87" s="17">
         <v>360</v>
       </c>
     </row>
@@ -21589,7 +21587,7 @@
       <c r="K88" s="13">
         <v>123</v>
       </c>
-      <c r="L88" s="16">
+      <c r="L88" s="17">
         <v>346</v>
       </c>
     </row>
@@ -21621,7 +21619,7 @@
       <c r="K89" s="13">
         <v>119</v>
       </c>
-      <c r="L89" s="16">
+      <c r="L89" s="17">
         <v>336</v>
       </c>
     </row>
@@ -21653,7 +21651,7 @@
       <c r="K90" s="13">
         <v>111</v>
       </c>
-      <c r="L90" s="16">
+      <c r="L90" s="17">
         <v>337</v>
       </c>
     </row>
@@ -21685,7 +21683,7 @@
       <c r="K91" s="13">
         <v>121</v>
       </c>
-      <c r="L91" s="16">
+      <c r="L91" s="17">
         <v>316</v>
       </c>
     </row>
@@ -21717,7 +21715,7 @@
       <c r="K92" s="13">
         <v>74</v>
       </c>
-      <c r="L92" s="16">
+      <c r="L92" s="17">
         <v>309</v>
       </c>
     </row>
@@ -21749,7 +21747,7 @@
       <c r="K93" s="13">
         <v>139</v>
       </c>
-      <c r="L93" s="16">
+      <c r="L93" s="17">
         <v>389</v>
       </c>
     </row>
@@ -21781,7 +21779,7 @@
       <c r="K94" s="13">
         <v>102</v>
       </c>
-      <c r="L94" s="16">
+      <c r="L94" s="17">
         <v>294</v>
       </c>
     </row>
@@ -21813,7 +21811,7 @@
       <c r="K95" s="13">
         <v>126</v>
       </c>
-      <c r="L95" s="16">
+      <c r="L95" s="17">
         <v>388</v>
       </c>
     </row>
@@ -21845,7 +21843,7 @@
       <c r="K96" s="13">
         <v>94</v>
       </c>
-      <c r="L96" s="16">
+      <c r="L96" s="17">
         <v>275</v>
       </c>
     </row>
@@ -21877,7 +21875,7 @@
       <c r="K97" s="13">
         <v>122</v>
       </c>
-      <c r="L97" s="16">
+      <c r="L97" s="17">
         <v>328</v>
       </c>
     </row>
@@ -21909,7 +21907,7 @@
       <c r="K98" s="13">
         <v>93</v>
       </c>
-      <c r="L98" s="16">
+      <c r="L98" s="17">
         <v>314</v>
       </c>
     </row>
@@ -21941,7 +21939,7 @@
       <c r="K99" s="13">
         <v>76</v>
       </c>
-      <c r="L99" s="16">
+      <c r="L99" s="17">
         <v>287</v>
       </c>
     </row>
@@ -21973,7 +21971,7 @@
       <c r="K100" s="13">
         <v>74</v>
       </c>
-      <c r="L100" s="16">
+      <c r="L100" s="17">
         <v>265</v>
       </c>
     </row>
@@ -22005,7 +22003,7 @@
       <c r="K101" s="13">
         <v>113</v>
       </c>
-      <c r="L101" s="16">
+      <c r="L101" s="17">
         <v>322</v>
       </c>
     </row>
@@ -22037,7 +22035,7 @@
       <c r="K102" s="13">
         <v>82</v>
       </c>
-      <c r="L102" s="16">
+      <c r="L102" s="17">
         <v>293</v>
       </c>
     </row>
@@ -22069,7 +22067,7 @@
       <c r="K103" s="13">
         <v>122</v>
       </c>
-      <c r="L103" s="16">
+      <c r="L103" s="17">
         <v>300</v>
       </c>
     </row>
@@ -22101,7 +22099,7 @@
       <c r="K104" s="13">
         <v>125</v>
       </c>
-      <c r="L104" s="16">
+      <c r="L104" s="17">
         <v>398</v>
       </c>
     </row>
@@ -22133,7 +22131,7 @@
       <c r="K105" s="13">
         <v>78</v>
       </c>
-      <c r="L105" s="16">
+      <c r="L105" s="17">
         <v>310</v>
       </c>
     </row>
@@ -22165,7 +22163,7 @@
       <c r="K106" s="13">
         <v>104</v>
       </c>
-      <c r="L106" s="16">
+      <c r="L106" s="17">
         <v>315</v>
       </c>
     </row>
@@ -22197,7 +22195,7 @@
       <c r="K107" s="13">
         <v>117</v>
       </c>
-      <c r="L107" s="16">
+      <c r="L107" s="17">
         <v>379</v>
       </c>
     </row>
@@ -22229,7 +22227,7 @@
       <c r="K108" s="13">
         <v>74</v>
       </c>
-      <c r="L108" s="16">
+      <c r="L108" s="17">
         <v>341</v>
       </c>
     </row>
@@ -22261,7 +22259,7 @@
       <c r="K109" s="13">
         <v>90</v>
       </c>
-      <c r="L109" s="16">
+      <c r="L109" s="17">
         <v>312</v>
       </c>
     </row>
@@ -22293,7 +22291,7 @@
       <c r="K110" s="13">
         <v>94</v>
       </c>
-      <c r="L110" s="16">
+      <c r="L110" s="17">
         <v>302</v>
       </c>
     </row>
@@ -22325,7 +22323,7 @@
       <c r="K111" s="13">
         <v>99</v>
       </c>
-      <c r="L111" s="16">
+      <c r="L111" s="17">
         <v>370</v>
       </c>
     </row>
@@ -22357,7 +22355,7 @@
       <c r="K112" s="13">
         <v>108</v>
       </c>
-      <c r="L112" s="16">
+      <c r="L112" s="17">
         <v>340</v>
       </c>
     </row>
@@ -22389,7 +22387,7 @@
       <c r="K113" s="13">
         <v>99</v>
       </c>
-      <c r="L113" s="16">
+      <c r="L113" s="17">
         <v>307</v>
       </c>
     </row>
@@ -22421,7 +22419,7 @@
       <c r="K114" s="13">
         <v>121</v>
       </c>
-      <c r="L114" s="16">
+      <c r="L114" s="17">
         <v>383</v>
       </c>
     </row>
@@ -22453,7 +22451,7 @@
       <c r="K115" s="13">
         <v>110</v>
       </c>
-      <c r="L115" s="16">
+      <c r="L115" s="17">
         <v>346</v>
       </c>
     </row>
@@ -22485,7 +22483,7 @@
       <c r="K116" s="13">
         <v>93</v>
       </c>
-      <c r="L116" s="16">
+      <c r="L116" s="17">
         <v>311</v>
       </c>
     </row>
@@ -22517,7 +22515,7 @@
       <c r="K117" s="13">
         <v>78</v>
       </c>
-      <c r="L117" s="16">
+      <c r="L117" s="17">
         <v>300</v>
       </c>
     </row>
@@ -22549,7 +22547,7 @@
       <c r="K118" s="13">
         <v>77</v>
       </c>
-      <c r="L118" s="16">
+      <c r="L118" s="17">
         <v>290</v>
       </c>
     </row>
@@ -22581,7 +22579,7 @@
       <c r="K119" s="13">
         <v>84</v>
       </c>
-      <c r="L119" s="16">
+      <c r="L119" s="17">
         <v>316</v>
       </c>
     </row>
@@ -22613,7 +22611,7 @@
       <c r="K120" s="13">
         <v>110</v>
       </c>
-      <c r="L120" s="16">
+      <c r="L120" s="17">
         <v>317</v>
       </c>
     </row>
@@ -22645,7 +22643,7 @@
       <c r="K121" s="13">
         <v>78</v>
       </c>
-      <c r="L121" s="16">
+      <c r="L121" s="17">
         <v>313</v>
       </c>
     </row>
@@ -22677,7 +22675,7 @@
       <c r="K122" s="13">
         <v>114</v>
       </c>
-      <c r="L122" s="16">
+      <c r="L122" s="17">
         <v>297</v>
       </c>
     </row>
@@ -22709,7 +22707,7 @@
       <c r="K123" s="13">
         <v>116</v>
       </c>
-      <c r="L123" s="16">
+      <c r="L123" s="17">
         <v>336</v>
       </c>
     </row>
@@ -22741,7 +22739,7 @@
       <c r="K124" s="13">
         <v>113</v>
       </c>
-      <c r="L124" s="16">
+      <c r="L124" s="17">
         <v>367</v>
       </c>
     </row>
@@ -22773,7 +22771,7 @@
       <c r="K125" s="13">
         <v>116</v>
       </c>
-      <c r="L125" s="16">
+      <c r="L125" s="17">
         <v>369</v>
       </c>
     </row>
@@ -22805,7 +22803,7 @@
       <c r="K126" s="13">
         <v>82</v>
       </c>
-      <c r="L126" s="16">
+      <c r="L126" s="17">
         <v>289</v>
       </c>
     </row>
@@ -22837,7 +22835,7 @@
       <c r="K127" s="13">
         <v>77</v>
       </c>
-      <c r="L127" s="16">
+      <c r="L127" s="17">
         <v>296</v>
       </c>
     </row>
@@ -22869,7 +22867,7 @@
       <c r="K128" s="13">
         <v>122</v>
       </c>
-      <c r="L128" s="16">
+      <c r="L128" s="17">
         <v>298</v>
       </c>
     </row>
@@ -22901,7 +22899,7 @@
       <c r="K129" s="13">
         <v>107</v>
       </c>
-      <c r="L129" s="16">
+      <c r="L129" s="17">
         <v>290</v>
       </c>
     </row>
@@ -22933,7 +22931,7 @@
       <c r="K130" s="13">
         <v>78</v>
       </c>
-      <c r="L130" s="16">
+      <c r="L130" s="17">
         <v>313</v>
       </c>
     </row>
@@ -22965,7 +22963,7 @@
       <c r="K131" s="13">
         <v>121</v>
       </c>
-      <c r="L131" s="16">
+      <c r="L131" s="17">
         <v>307</v>
       </c>
     </row>
@@ -22997,7 +22995,7 @@
       <c r="K132" s="13">
         <v>114</v>
       </c>
-      <c r="L132" s="16">
+      <c r="L132" s="17">
         <v>311</v>
       </c>
     </row>
@@ -23029,7 +23027,7 @@
       <c r="K133" s="13">
         <v>92</v>
       </c>
-      <c r="L133" s="16">
+      <c r="L133" s="17">
         <v>294</v>
       </c>
     </row>
@@ -23061,7 +23059,7 @@
       <c r="K134" s="13">
         <v>112</v>
       </c>
-      <c r="L134" s="16">
+      <c r="L134" s="17">
         <v>332</v>
       </c>
     </row>
@@ -23093,7 +23091,7 @@
       <c r="K135" s="13">
         <v>85</v>
       </c>
-      <c r="L135" s="16">
+      <c r="L135" s="17">
         <v>276</v>
       </c>
     </row>
@@ -23125,7 +23123,7 @@
       <c r="K136" s="13">
         <v>92</v>
       </c>
-      <c r="L136" s="16">
+      <c r="L136" s="17">
         <v>268</v>
       </c>
     </row>
@@ -23157,7 +23155,7 @@
       <c r="K137" s="13">
         <v>72</v>
       </c>
-      <c r="L137" s="16">
+      <c r="L137" s="17">
         <v>284</v>
       </c>
     </row>
@@ -23189,7 +23187,7 @@
       <c r="K138" s="13">
         <v>80</v>
       </c>
-      <c r="L138" s="16">
+      <c r="L138" s="17">
         <v>287</v>
       </c>
     </row>
@@ -23221,7 +23219,7 @@
       <c r="K139" s="13">
         <v>123</v>
       </c>
-      <c r="L139" s="16">
+      <c r="L139" s="17">
         <v>341</v>
       </c>
     </row>
@@ -23253,7 +23251,7 @@
       <c r="K140" s="13">
         <v>122</v>
       </c>
-      <c r="L140" s="16">
+      <c r="L140" s="17">
         <v>345</v>
       </c>
     </row>
@@ -23285,7 +23283,7 @@
       <c r="K141" s="13">
         <v>85</v>
       </c>
-      <c r="L141" s="16">
+      <c r="L141" s="17">
         <v>268</v>
       </c>
     </row>
@@ -23317,7 +23315,7 @@
       <c r="K142" s="13">
         <v>76</v>
       </c>
-      <c r="L142" s="16">
+      <c r="L142" s="17">
         <v>267</v>
       </c>
     </row>
@@ -23349,7 +23347,7 @@
       <c r="K143" s="13">
         <v>118</v>
       </c>
-      <c r="L143" s="16">
+      <c r="L143" s="17">
         <v>360</v>
       </c>
     </row>
@@ -23381,7 +23379,7 @@
       <c r="K144" s="13">
         <v>83</v>
       </c>
-      <c r="L144" s="16">
+      <c r="L144" s="17">
         <v>332</v>
       </c>
     </row>
@@ -23413,7 +23411,7 @@
       <c r="K145" s="13">
         <v>68</v>
       </c>
-      <c r="L145" s="16">
+      <c r="L145" s="17">
         <v>267</v>
       </c>
     </row>
@@ -23445,7 +23443,7 @@
       <c r="K146" s="13">
         <v>92</v>
       </c>
-      <c r="L146" s="16">
+      <c r="L146" s="17">
         <v>322</v>
       </c>
     </row>
@@ -23477,7 +23475,7 @@
       <c r="K147" s="13">
         <v>115</v>
       </c>
-      <c r="L147" s="16">
+      <c r="L147" s="17">
         <v>323</v>
       </c>
     </row>
@@ -23509,11 +23507,14 @@
       <c r="K148" s="13">
         <v>103</v>
       </c>
-      <c r="L148" s="16">
+      <c r="L148" s="17">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L148">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="296">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:G1"/>
